--- a/水泥.excel/1103/1103(102.1~105.4)4.xlsx
+++ b/水泥.excel/1103/1103(102.1~105.4)4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,174 +115,15 @@
     <t>備供出售金融資產未實現評價損益</t>
   </si>
   <si>
-    <t>-267,500</t>
-  </si>
-  <si>
-    <t>-591,730</t>
-  </si>
-  <si>
-    <t>1,589,534</t>
-  </si>
-  <si>
-    <t>3,562,008</t>
-  </si>
-  <si>
-    <t>331,277</t>
-  </si>
-  <si>
-    <t>-1,708,649</t>
-  </si>
-  <si>
-    <t>-80,371</t>
-  </si>
-  <si>
-    <t>-1,515,104</t>
-  </si>
-  <si>
-    <t>-247,954</t>
-  </si>
-  <si>
-    <t>-1,207,176</t>
-  </si>
-  <si>
-    <t>-3,115,400</t>
-  </si>
-  <si>
-    <t>-5,157,635</t>
-  </si>
-  <si>
-    <t>182,681</t>
-  </si>
-  <si>
-    <t>-462,611</t>
-  </si>
-  <si>
-    <t>2,599,130</t>
-  </si>
-  <si>
-    <t>2,037,927</t>
-  </si>
-  <si>
     <t>其他利益及損失淨額</t>
   </si>
   <si>
-    <t>190,636</t>
-  </si>
-  <si>
-    <t>-64,130</t>
-  </si>
-  <si>
-    <t>129,177</t>
-  </si>
-  <si>
-    <t>604,890</t>
-  </si>
-  <si>
-    <t>23,990</t>
-  </si>
-  <si>
-    <t>-143,516</t>
-  </si>
-  <si>
-    <t>63,195</t>
-  </si>
-  <si>
-    <t>-248,417</t>
-  </si>
-  <si>
-    <t>-2,986</t>
-  </si>
-  <si>
-    <t>-11,575</t>
-  </si>
-  <si>
-    <t>-422,650</t>
-  </si>
-  <si>
-    <t>-591,281</t>
-  </si>
-  <si>
-    <t>-60,259</t>
-  </si>
-  <si>
-    <t>-53,957</t>
-  </si>
-  <si>
-    <t>123,985</t>
-  </si>
-  <si>
-    <t>43,582</t>
-  </si>
-  <si>
     <t>其他收入</t>
   </si>
   <si>
-    <t>37,846</t>
-  </si>
-  <si>
-    <t>142,843</t>
-  </si>
-  <si>
-    <t>232,074</t>
-  </si>
-  <si>
-    <t>488,267</t>
-  </si>
-  <si>
-    <t>28,221</t>
-  </si>
-  <si>
-    <t>334,821</t>
-  </si>
-  <si>
-    <t>271,941</t>
-  </si>
-  <si>
-    <t>727,550</t>
-  </si>
-  <si>
-    <t>36,706</t>
-  </si>
-  <si>
-    <t>341,477</t>
-  </si>
-  <si>
-    <t>311,663</t>
-  </si>
-  <si>
-    <t>720,661</t>
-  </si>
-  <si>
-    <t>29,661</t>
-  </si>
-  <si>
-    <t>138,371</t>
-  </si>
-  <si>
-    <t>129,757</t>
-  </si>
-  <si>
-    <t>722,124</t>
-  </si>
-  <si>
     <t>其他收益及費損淨額</t>
   </si>
   <si>
-    <t>654,569</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>39,907</t>
-  </si>
-  <si>
-    <t>6,074</t>
-  </si>
-  <si>
-    <t>980,475</t>
-  </si>
-  <si>
     <t>其他營業成本</t>
   </si>
   <si>
@@ -292,1209 +133,93 @@
     <t>其他綜合損益</t>
   </si>
   <si>
-    <t>-40,917</t>
-  </si>
-  <si>
-    <t>-14,381</t>
-  </si>
-  <si>
-    <t>16,151</t>
-  </si>
-  <si>
-    <t>-79,472</t>
-  </si>
-  <si>
-    <t>-38,065</t>
-  </si>
-  <si>
-    <t>39,439</t>
-  </si>
-  <si>
-    <t>-24,274</t>
-  </si>
-  <si>
-    <t>-128,336</t>
-  </si>
-  <si>
     <t>其他綜合損益（淨額）</t>
   </si>
   <si>
-    <t>-47,330</t>
-  </si>
-  <si>
-    <t>-509,233</t>
-  </si>
-  <si>
-    <t>1,504,967</t>
-  </si>
-  <si>
-    <t>3,889,029</t>
-  </si>
-  <si>
-    <t>530,985</t>
-  </si>
-  <si>
-    <t>-1,908,583</t>
-  </si>
-  <si>
-    <t>44,348</t>
-  </si>
-  <si>
-    <t>-1,045,280</t>
-  </si>
-  <si>
-    <t>-450,076</t>
-  </si>
-  <si>
-    <t>-1,261,037</t>
-  </si>
-  <si>
-    <t>-2,822,732</t>
-  </si>
-  <si>
-    <t>-5,168,459</t>
-  </si>
-  <si>
-    <t>126,972</t>
-  </si>
-  <si>
-    <t>-486,403</t>
-  </si>
-  <si>
-    <t>2,388,414</t>
-  </si>
-  <si>
-    <t>1,836,923</t>
-  </si>
-  <si>
     <t>勞務成本</t>
   </si>
   <si>
-    <t>218,725</t>
-  </si>
-  <si>
-    <t>247,554</t>
-  </si>
-  <si>
-    <t>238,264</t>
-  </si>
-  <si>
-    <t>924,090</t>
-  </si>
-  <si>
-    <t>232,260</t>
-  </si>
-  <si>
-    <t>236,984</t>
-  </si>
-  <si>
-    <t>228,805</t>
-  </si>
-  <si>
-    <t>923,088</t>
-  </si>
-  <si>
-    <t>158,683</t>
-  </si>
-  <si>
-    <t>156,702</t>
-  </si>
-  <si>
-    <t>154,072</t>
-  </si>
-  <si>
-    <t>630,157</t>
-  </si>
-  <si>
-    <t>152,490</t>
-  </si>
-  <si>
-    <t>182,361</t>
-  </si>
-  <si>
-    <t>182,024</t>
-  </si>
-  <si>
-    <t>642,801</t>
-  </si>
-  <si>
     <t>勞務收入</t>
   </si>
   <si>
-    <t>209,446</t>
-  </si>
-  <si>
-    <t>249,631</t>
-  </si>
-  <si>
-    <t>241,873</t>
-  </si>
-  <si>
-    <t>975,713</t>
-  </si>
-  <si>
-    <t>236,060</t>
-  </si>
-  <si>
-    <t>281,772</t>
-  </si>
-  <si>
-    <t>252,710</t>
-  </si>
-  <si>
-    <t>1,025,600</t>
-  </si>
-  <si>
-    <t>164,009</t>
-  </si>
-  <si>
-    <t>171,175</t>
-  </si>
-  <si>
-    <t>148,306</t>
-  </si>
-  <si>
-    <t>672,328</t>
-  </si>
-  <si>
-    <t>160,886</t>
-  </si>
-  <si>
-    <t>221,413</t>
-  </si>
-  <si>
-    <t>247,276</t>
-  </si>
-  <si>
-    <t>884,616</t>
-  </si>
-  <si>
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>261,087</t>
-  </si>
-  <si>
-    <t>96,878</t>
-  </si>
-  <si>
-    <t>-100,718</t>
-  </si>
-  <si>
-    <t>395,422</t>
-  </si>
-  <si>
-    <t>237,773</t>
-  </si>
-  <si>
-    <t>-239,373</t>
-  </si>
-  <si>
-    <t>148,993</t>
-  </si>
-  <si>
-    <t>610,930</t>
-  </si>
-  <si>
-    <t>-242,379</t>
-  </si>
-  <si>
-    <t>-64,441</t>
-  </si>
-  <si>
-    <t>350,626</t>
-  </si>
-  <si>
-    <t>-8,515</t>
-  </si>
-  <si>
-    <t>-70,501</t>
-  </si>
-  <si>
-    <t>-30,270</t>
-  </si>
-  <si>
-    <t>-247,279</t>
-  </si>
-  <si>
-    <t>-269,718</t>
-  </si>
-  <si>
     <t>基本每股盈餘</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>1.97</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.29</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>-0.50</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>-0.10</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
     <t>所得稅費用（利益）合計</t>
   </si>
   <si>
-    <t>-25,835</t>
-  </si>
-  <si>
-    <t>-3,310</t>
-  </si>
-  <si>
-    <t>23,287</t>
-  </si>
-  <si>
-    <t>48,877</t>
-  </si>
-  <si>
-    <t>-7,585</t>
-  </si>
-  <si>
-    <t>26,516</t>
-  </si>
-  <si>
-    <t>12,564</t>
-  </si>
-  <si>
-    <t>-44,487</t>
-  </si>
-  <si>
-    <t>-26,257</t>
-  </si>
-  <si>
-    <t>84,254</t>
-  </si>
-  <si>
-    <t>-43,210</t>
-  </si>
-  <si>
-    <t>-18,421</t>
-  </si>
-  <si>
-    <t>-2,543</t>
-  </si>
-  <si>
-    <t>20,075</t>
-  </si>
-  <si>
-    <t>14,964</t>
-  </si>
-  <si>
-    <t>69,355</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資之其他綜合損益之份額合計</t>
   </si>
   <si>
-    <t>5,466</t>
-  </si>
-  <si>
-    <t>-4,579</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資損益之份額淨額</t>
   </si>
   <si>
-    <t>526</t>
-  </si>
-  <si>
-    <t>-2,099</t>
-  </si>
-  <si>
-    <t>-20</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>-7,882</t>
-  </si>
-  <si>
-    <t>-2,100</t>
-  </si>
-  <si>
-    <t>-232</t>
-  </si>
-  <si>
-    <t>-17,916</t>
-  </si>
-  <si>
-    <t>-5,220</t>
-  </si>
-  <si>
-    <t>-9,849</t>
-  </si>
-  <si>
-    <t>-39,344</t>
-  </si>
-  <si>
-    <t>-117,219</t>
-  </si>
-  <si>
-    <t>-20,187</t>
-  </si>
-  <si>
-    <t>-16,627</t>
-  </si>
-  <si>
-    <t>-1,428</t>
-  </si>
-  <si>
-    <t>-37,437</t>
-  </si>
-  <si>
     <t>採用權益法認列關聯企業及合資之其他綜合損益之份額-可能重分類至損益之項目</t>
   </si>
   <si>
-    <t>-13,679</t>
-  </si>
-  <si>
-    <t>-2,334</t>
-  </si>
-  <si>
     <t>推銷費用</t>
   </si>
   <si>
-    <t>8,876</t>
-  </si>
-  <si>
-    <t>11,403</t>
-  </si>
-  <si>
-    <t>12,219</t>
-  </si>
-  <si>
-    <t>46,056</t>
-  </si>
-  <si>
-    <t>9,622</t>
-  </si>
-  <si>
-    <t>7,604</t>
-  </si>
-  <si>
-    <t>12,267</t>
-  </si>
-  <si>
-    <t>45,915</t>
-  </si>
-  <si>
-    <t>17,640</t>
-  </si>
-  <si>
-    <t>12,189</t>
-  </si>
-  <si>
-    <t>8,364</t>
-  </si>
-  <si>
-    <t>44,136</t>
-  </si>
-  <si>
-    <t>7,654</t>
-  </si>
-  <si>
-    <t>4,996</t>
-  </si>
-  <si>
-    <t>5,381</t>
-  </si>
-  <si>
-    <t>23,191</t>
-  </si>
-  <si>
     <t>本期淨利（淨損）</t>
   </si>
   <si>
-    <t>59,637</t>
-  </si>
-  <si>
-    <t>-45,095</t>
-  </si>
-  <si>
-    <t>178,440</t>
-  </si>
-  <si>
-    <t>1,289,927</t>
-  </si>
-  <si>
-    <t>-34,204</t>
-  </si>
-  <si>
-    <t>45,792</t>
-  </si>
-  <si>
-    <t>179,848</t>
-  </si>
-  <si>
-    <t>53,788</t>
-  </si>
-  <si>
-    <t>-183,290</t>
-  </si>
-  <si>
-    <t>115,684</t>
-  </si>
-  <si>
-    <t>-316,976</t>
-  </si>
-  <si>
-    <t>213,321</t>
-  </si>
-  <si>
-    <t>-188,985</t>
-  </si>
-  <si>
-    <t>-63,416</t>
-  </si>
-  <si>
-    <t>148,684</t>
-  </si>
-  <si>
-    <t>9,806</t>
-  </si>
-  <si>
     <t>本期綜合損益總額</t>
   </si>
   <si>
-    <t>12,307</t>
-  </si>
-  <si>
-    <t>-554,328</t>
-  </si>
-  <si>
-    <t>1,683,407</t>
-  </si>
-  <si>
-    <t>5,178,956</t>
-  </si>
-  <si>
-    <t>496,781</t>
-  </si>
-  <si>
-    <t>-1,862,791</t>
-  </si>
-  <si>
-    <t>224,196</t>
-  </si>
-  <si>
-    <t>-991,492</t>
-  </si>
-  <si>
-    <t>-633,366</t>
-  </si>
-  <si>
-    <t>-1,145,353</t>
-  </si>
-  <si>
-    <t>-3,139,708</t>
-  </si>
-  <si>
-    <t>-4,955,138</t>
-  </si>
-  <si>
-    <t>-62,013</t>
-  </si>
-  <si>
-    <t>-549,819</t>
-  </si>
-  <si>
-    <t>2,537,098</t>
-  </si>
-  <si>
-    <t>1,846,729</t>
-  </si>
-  <si>
     <t>母公司業主（淨利／損）</t>
   </si>
   <si>
-    <t>82,329</t>
-  </si>
-  <si>
-    <t>-33,186</t>
-  </si>
-  <si>
-    <t>187,936</t>
-  </si>
-  <si>
-    <t>1,272,068</t>
-  </si>
-  <si>
-    <t>-39,384</t>
-  </si>
-  <si>
-    <t>35,662</t>
-  </si>
-  <si>
-    <t>153,838</t>
-  </si>
-  <si>
-    <t>16,343</t>
-  </si>
-  <si>
-    <t>-187,780</t>
-  </si>
-  <si>
-    <t>108,282</t>
-  </si>
-  <si>
-    <t>-321,700</t>
-  </si>
-  <si>
-    <t>221,518</t>
-  </si>
-  <si>
-    <t>-188,620</t>
-  </si>
-  <si>
-    <t>-66,391</t>
-  </si>
-  <si>
-    <t>135,471</t>
-  </si>
-  <si>
-    <t>24,889</t>
-  </si>
-  <si>
     <t>母公司業主（綜合損益）</t>
   </si>
   <si>
-    <t>28,882</t>
-  </si>
-  <si>
-    <t>-537,402</t>
-  </si>
-  <si>
-    <t>1,637,719</t>
-  </si>
-  <si>
-    <t>4,994,028</t>
-  </si>
-  <si>
-    <t>469,716</t>
-  </si>
-  <si>
-    <t>-1,806,340</t>
-  </si>
-  <si>
-    <t>195,830</t>
-  </si>
-  <si>
-    <t>-988,148</t>
-  </si>
-  <si>
-    <t>-622,310</t>
-  </si>
-  <si>
-    <t>-1,101,107</t>
-  </si>
-  <si>
-    <t>-3,044,874</t>
-  </si>
-  <si>
-    <t>-4,760,135</t>
-  </si>
-  <si>
-    <t>-66,938</t>
-  </si>
-  <si>
-    <t>-536,685</t>
-  </si>
-  <si>
-    <t>2,439,082</t>
-  </si>
-  <si>
-    <t>1,793,477</t>
-  </si>
-  <si>
     <t>營建工程成本</t>
   </si>
   <si>
-    <t>133,100</t>
-  </si>
-  <si>
-    <t>13,003</t>
-  </si>
-  <si>
-    <t>61,208</t>
-  </si>
-  <si>
     <t>營建工程收入</t>
   </si>
   <si>
-    <t>218,346</t>
-  </si>
-  <si>
-    <t>21,636</t>
-  </si>
-  <si>
-    <t>15,838</t>
-  </si>
-  <si>
     <t>營業利益（損失）</t>
   </si>
   <si>
-    <t>-149,811</t>
-  </si>
-  <si>
-    <t>-79,501</t>
-  </si>
-  <si>
-    <t>-119,874</t>
-  </si>
-  <si>
-    <t>416,023</t>
-  </si>
-  <si>
-    <t>-42,587</t>
-  </si>
-  <si>
-    <t>-73,359</t>
-  </si>
-  <si>
-    <t>-91,135</t>
-  </si>
-  <si>
-    <t>-258,849</t>
-  </si>
-  <si>
-    <t>-185,767</t>
-  </si>
-  <si>
-    <t>-68,386</t>
-  </si>
-  <si>
-    <t>-146,664</t>
-  </si>
-  <si>
-    <t>408,964</t>
-  </si>
-  <si>
-    <t>-91,274</t>
-  </si>
-  <si>
-    <t>-60,846</t>
-  </si>
-  <si>
-    <t>-42,935</t>
-  </si>
-  <si>
-    <t>-457,478</t>
-  </si>
-  <si>
     <t>營業外收入及支出合計</t>
   </si>
   <si>
-    <t>183,613</t>
-  </si>
-  <si>
-    <t>31,096</t>
-  </si>
-  <si>
-    <t>321,601</t>
-  </si>
-  <si>
-    <t>922,781</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>145,667</t>
-  </si>
-  <si>
-    <t>283,547</t>
-  </si>
-  <si>
-    <t>268,150</t>
-  </si>
-  <si>
-    <t>-23,780</t>
-  </si>
-  <si>
-    <t>268,324</t>
-  </si>
-  <si>
-    <t>-213,522</t>
-  </si>
-  <si>
-    <t>-214,064</t>
-  </si>
-  <si>
-    <t>-100,254</t>
-  </si>
-  <si>
-    <t>17,505</t>
-  </si>
-  <si>
-    <t>206,583</t>
-  </si>
-  <si>
-    <t>536,639</t>
-  </si>
-  <si>
     <t>營業成本合計</t>
   </si>
   <si>
-    <t>786,094</t>
-  </si>
-  <si>
-    <t>1,034,363</t>
-  </si>
-  <si>
-    <t>956,710</t>
-  </si>
-  <si>
-    <t>4,033,360</t>
-  </si>
-  <si>
-    <t>961,066</t>
-  </si>
-  <si>
-    <t>816,776</t>
-  </si>
-  <si>
-    <t>886,856</t>
-  </si>
-  <si>
-    <t>3,718,300</t>
-  </si>
-  <si>
-    <t>747,020</t>
-  </si>
-  <si>
-    <t>745,119</t>
-  </si>
-  <si>
-    <t>596,649</t>
-  </si>
-  <si>
-    <t>2,934,267</t>
-  </si>
-  <si>
-    <t>544,548</t>
-  </si>
-  <si>
-    <t>792,964</t>
-  </si>
-  <si>
-    <t>706,027</t>
-  </si>
-  <si>
-    <t>3,044,769</t>
-  </si>
-  <si>
     <t>營業收入合計</t>
   </si>
   <si>
-    <t>741,189</t>
-  </si>
-  <si>
-    <t>1,051,146</t>
-  </si>
-  <si>
-    <t>945,725</t>
-  </si>
-  <si>
-    <t>4,268,305</t>
-  </si>
-  <si>
-    <t>1,019,429</t>
-  </si>
-  <si>
-    <t>890,073</t>
-  </si>
-  <si>
-    <t>908,502</t>
-  </si>
-  <si>
-    <t>3,937,686</t>
-  </si>
-  <si>
-    <t>671,355</t>
-  </si>
-  <si>
-    <t>737,435</t>
-  </si>
-  <si>
-    <t>548,822</t>
-  </si>
-  <si>
-    <t>2,826,519</t>
-  </si>
-  <si>
-    <t>541,218</t>
-  </si>
-  <si>
-    <t>820,256</t>
-  </si>
-  <si>
-    <t>743,175</t>
-  </si>
-  <si>
-    <t>3,140,190</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）</t>
   </si>
   <si>
-    <t>-44,905</t>
-  </si>
-  <si>
-    <t>16,783</t>
-  </si>
-  <si>
-    <t>-10,985</t>
-  </si>
-  <si>
-    <t>234,945</t>
-  </si>
-  <si>
-    <t>58,363</t>
-  </si>
-  <si>
-    <t>73,297</t>
-  </si>
-  <si>
-    <t>21,646</t>
-  </si>
-  <si>
-    <t>219,386</t>
-  </si>
-  <si>
-    <t>-75,665</t>
-  </si>
-  <si>
-    <t>-7,684</t>
-  </si>
-  <si>
-    <t>-47,827</t>
-  </si>
-  <si>
-    <t>-107,748</t>
-  </si>
-  <si>
-    <t>-3,330</t>
-  </si>
-  <si>
-    <t>27,292</t>
-  </si>
-  <si>
-    <t>37,148</t>
-  </si>
-  <si>
-    <t>95,421</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）淨額</t>
   </si>
   <si>
     <t>營業費用合計</t>
   </si>
   <si>
-    <t>104,906</t>
-  </si>
-  <si>
-    <t>96,284</t>
-  </si>
-  <si>
-    <t>108,889</t>
-  </si>
-  <si>
-    <t>473,491</t>
-  </si>
-  <si>
-    <t>100,950</t>
-  </si>
-  <si>
-    <t>146,656</t>
-  </si>
-  <si>
-    <t>112,781</t>
-  </si>
-  <si>
-    <t>478,235</t>
-  </si>
-  <si>
-    <t>110,102</t>
-  </si>
-  <si>
-    <t>100,609</t>
-  </si>
-  <si>
-    <t>104,911</t>
-  </si>
-  <si>
-    <t>463,763</t>
-  </si>
-  <si>
-    <t>87,944</t>
-  </si>
-  <si>
-    <t>88,138</t>
-  </si>
-  <si>
-    <t>80,083</t>
-  </si>
-  <si>
-    <t>552,899</t>
-  </si>
-  <si>
     <t>確定福利計畫之再衡量數</t>
   </si>
   <si>
-    <t>5,605</t>
-  </si>
-  <si>
-    <t>-8,191</t>
-  </si>
-  <si>
-    <t>-7,145</t>
-  </si>
-  <si>
-    <t>17,525</t>
-  </si>
-  <si>
     <t>租賃成本</t>
   </si>
   <si>
-    <t>47,862</t>
-  </si>
-  <si>
-    <t>52,611</t>
-  </si>
-  <si>
-    <t>65,919</t>
-  </si>
-  <si>
-    <t>204,637</t>
-  </si>
-  <si>
-    <t>51,588</t>
-  </si>
-  <si>
-    <t>53,373</t>
-  </si>
-  <si>
-    <t>53,188</t>
-  </si>
-  <si>
-    <t>212,599</t>
-  </si>
-  <si>
-    <t>51,743</t>
-  </si>
-  <si>
-    <t>54,640</t>
-  </si>
-  <si>
-    <t>55,709</t>
-  </si>
-  <si>
-    <t>51,879</t>
-  </si>
-  <si>
-    <t>54,870</t>
-  </si>
-  <si>
-    <t>53,910</t>
-  </si>
-  <si>
-    <t>227,437</t>
-  </si>
-  <si>
     <t>租賃收入</t>
   </si>
   <si>
-    <t>91,595</t>
-  </si>
-  <si>
-    <t>95,089</t>
-  </si>
-  <si>
-    <t>99,114</t>
-  </si>
-  <si>
-    <t>355,357</t>
-  </si>
-  <si>
-    <t>92,300</t>
-  </si>
-  <si>
-    <t>94,354</t>
-  </si>
-  <si>
-    <t>103,624</t>
-  </si>
-  <si>
-    <t>397,504</t>
-  </si>
-  <si>
-    <t>109,133</t>
-  </si>
-  <si>
-    <t>110,376</t>
-  </si>
-  <si>
-    <t>108,986</t>
-  </si>
-  <si>
-    <t>438,940</t>
-  </si>
-  <si>
-    <t>109,334</t>
-  </si>
-  <si>
-    <t>111,396</t>
-  </si>
-  <si>
-    <t>114,444</t>
-  </si>
-  <si>
-    <t>450,675</t>
-  </si>
-  <si>
     <t>稀釋每股盈餘</t>
   </si>
   <si>
     <t>稅前淨利（淨損）</t>
   </si>
   <si>
-    <t>33,802</t>
-  </si>
-  <si>
-    <t>-48,405</t>
-  </si>
-  <si>
-    <t>201,727</t>
-  </si>
-  <si>
-    <t>1,338,804</t>
-  </si>
-  <si>
-    <t>-41,789</t>
-  </si>
-  <si>
-    <t>72,308</t>
-  </si>
-  <si>
-    <t>192,412</t>
-  </si>
-  <si>
-    <t>9,301</t>
-  </si>
-  <si>
-    <t>-209,547</t>
-  </si>
-  <si>
-    <t>199,938</t>
-  </si>
-  <si>
-    <t>-360,186</t>
-  </si>
-  <si>
-    <t>194,900</t>
-  </si>
-  <si>
-    <t>-191,528</t>
-  </si>
-  <si>
-    <t>-43,341</t>
-  </si>
-  <si>
-    <t>163,648</t>
-  </si>
-  <si>
-    <t>79,161</t>
-  </si>
-  <si>
     <t>管理費用</t>
   </si>
   <si>
-    <t>96,030</t>
-  </si>
-  <si>
-    <t>84,881</t>
-  </si>
-  <si>
-    <t>96,670</t>
-  </si>
-  <si>
-    <t>427,435</t>
-  </si>
-  <si>
-    <t>91,328</t>
-  </si>
-  <si>
-    <t>139,052</t>
-  </si>
-  <si>
-    <t>100,514</t>
-  </si>
-  <si>
-    <t>432,320</t>
-  </si>
-  <si>
-    <t>92,462</t>
-  </si>
-  <si>
-    <t>88,420</t>
-  </si>
-  <si>
-    <t>96,547</t>
-  </si>
-  <si>
-    <t>419,627</t>
-  </si>
-  <si>
-    <t>80,290</t>
-  </si>
-  <si>
-    <t>83,142</t>
-  </si>
-  <si>
-    <t>74,702</t>
-  </si>
-  <si>
-    <t>529,708</t>
-  </si>
-  <si>
     <t>繼續營業單位本期淨利（淨損）</t>
   </si>
   <si>
@@ -1504,292 +229,22 @@
     <t>與不重分類之項目相關之所得稅</t>
   </si>
   <si>
-    <t>-1,214</t>
-  </si>
-  <si>
-    <t>2,979</t>
-  </si>
-  <si>
     <t>與可能重分類之項目相關之所得稅</t>
   </si>
   <si>
-    <t>-40,257</t>
-  </si>
-  <si>
-    <t>-10,580</t>
-  </si>
-  <si>
-    <t>57,958</t>
-  </si>
-  <si>
-    <t>-17,301</t>
-  </si>
-  <si>
-    <t>-14,792</t>
-  </si>
-  <si>
-    <t>-6,478</t>
-  </si>
-  <si>
-    <t>-36,563</t>
-  </si>
-  <si>
-    <t>-56,502</t>
-  </si>
-  <si>
     <t>財務成本淨額</t>
   </si>
   <si>
-    <t>45,395</t>
-  </si>
-  <si>
-    <t>45,518</t>
-  </si>
-  <si>
-    <t>39,630</t>
-  </si>
-  <si>
-    <t>171,332</t>
-  </si>
-  <si>
-    <t>43,531</t>
-  </si>
-  <si>
-    <t>43,538</t>
-  </si>
-  <si>
-    <t>51,357</t>
-  </si>
-  <si>
-    <t>193,067</t>
-  </si>
-  <si>
-    <t>52,280</t>
-  </si>
-  <si>
-    <t>51,729</t>
-  </si>
-  <si>
-    <t>63,191</t>
-  </si>
-  <si>
-    <t>226,225</t>
-  </si>
-  <si>
-    <t>49,469</t>
-  </si>
-  <si>
-    <t>50,282</t>
-  </si>
-  <si>
-    <t>45,731</t>
-  </si>
-  <si>
-    <t>191,630</t>
-  </si>
-  <si>
     <t>銷貨成本</t>
   </si>
   <si>
-    <t>519,507</t>
-  </si>
-  <si>
-    <t>734,198</t>
-  </si>
-  <si>
-    <t>652,527</t>
-  </si>
-  <si>
-    <t>2,771,533</t>
-  </si>
-  <si>
-    <t>664,215</t>
-  </si>
-  <si>
-    <t>526,419</t>
-  </si>
-  <si>
-    <t>604,863</t>
-  </si>
-  <si>
-    <t>2,569,610</t>
-  </si>
-  <si>
-    <t>536,594</t>
-  </si>
-  <si>
-    <t>533,777</t>
-  </si>
-  <si>
-    <t>386,868</t>
-  </si>
-  <si>
-    <t>2,084,724</t>
-  </si>
-  <si>
-    <t>340,179</t>
-  </si>
-  <si>
-    <t>555,733</t>
-  </si>
-  <si>
-    <t>470,093</t>
-  </si>
-  <si>
-    <t>2,113,323</t>
-  </si>
-  <si>
     <t>銷貨收入淨額</t>
   </si>
   <si>
-    <t>440,148</t>
-  </si>
-  <si>
-    <t>706,426</t>
-  </si>
-  <si>
-    <t>604,738</t>
-  </si>
-  <si>
-    <t>2,718,889</t>
-  </si>
-  <si>
-    <t>669,433</t>
-  </si>
-  <si>
-    <t>513,947</t>
-  </si>
-  <si>
-    <t>552,168</t>
-  </si>
-  <si>
-    <t>2,492,946</t>
-  </si>
-  <si>
-    <t>398,213</t>
-  </si>
-  <si>
-    <t>455,884</t>
-  </si>
-  <si>
-    <t>291,530</t>
-  </si>
-  <si>
-    <t>1,715,251</t>
-  </si>
-  <si>
-    <t>270,998</t>
-  </si>
-  <si>
-    <t>487,447</t>
-  </si>
-  <si>
-    <t>381,455</t>
-  </si>
-  <si>
-    <t>1,789,061</t>
-  </si>
-  <si>
     <t>非控制權益（淨利／損）</t>
   </si>
   <si>
-    <t>-22,692</t>
-  </si>
-  <si>
-    <t>-11,909</t>
-  </si>
-  <si>
-    <t>-9,496</t>
-  </si>
-  <si>
-    <t>17,859</t>
-  </si>
-  <si>
-    <t>5,180</t>
-  </si>
-  <si>
-    <t>10,130</t>
-  </si>
-  <si>
-    <t>26,010</t>
-  </si>
-  <si>
-    <t>37,445</t>
-  </si>
-  <si>
-    <t>4,490</t>
-  </si>
-  <si>
-    <t>7,402</t>
-  </si>
-  <si>
-    <t>4,724</t>
-  </si>
-  <si>
-    <t>-8,197</t>
-  </si>
-  <si>
-    <t>-365</t>
-  </si>
-  <si>
-    <t>2,975</t>
-  </si>
-  <si>
-    <t>13,213</t>
-  </si>
-  <si>
-    <t>-15,083</t>
-  </si>
-  <si>
     <t>非控制權益（綜合損益）</t>
-  </si>
-  <si>
-    <t>-16,575</t>
-  </si>
-  <si>
-    <t>-16,926</t>
-  </si>
-  <si>
-    <t>45,688</t>
-  </si>
-  <si>
-    <t>184,928</t>
-  </si>
-  <si>
-    <t>27,065</t>
-  </si>
-  <si>
-    <t>-56,451</t>
-  </si>
-  <si>
-    <t>28,366</t>
-  </si>
-  <si>
-    <t>-3,344</t>
-  </si>
-  <si>
-    <t>-11,056</t>
-  </si>
-  <si>
-    <t>-44,246</t>
-  </si>
-  <si>
-    <t>-94,834</t>
-  </si>
-  <si>
-    <t>-195,003</t>
-  </si>
-  <si>
-    <t>4,925</t>
-  </si>
-  <si>
-    <t>-13,134</t>
-  </si>
-  <si>
-    <t>98,016</t>
-  </si>
-  <si>
-    <t>53,252</t>
   </si>
 </sst>
 </file>
@@ -2248,98 +703,98 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>-267500</v>
       </c>
       <c r="C2" t="n">
         <v>-36.09</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
+      <c r="D2" t="n">
+        <v>-591730</v>
       </c>
       <c r="E2" t="n">
         <v>-56.29</v>
       </c>
-      <c r="F2" t="s">
-        <v>35</v>
+      <c r="F2" t="n">
+        <v>1589534</v>
       </c>
       <c r="G2" t="n">
         <v>168.08</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
+      <c r="H2" t="n">
+        <v>3562008</v>
       </c>
       <c r="I2" t="n">
         <v>83.45</v>
       </c>
-      <c r="J2" t="s">
-        <v>37</v>
+      <c r="J2" t="n">
+        <v>331277</v>
       </c>
       <c r="K2" t="n">
         <v>32.5</v>
       </c>
-      <c r="L2" t="s">
-        <v>38</v>
+      <c r="L2" t="n">
+        <v>-1708649</v>
       </c>
       <c r="M2" t="n">
         <v>-191.97</v>
       </c>
-      <c r="N2" t="s">
-        <v>39</v>
+      <c r="N2" t="n">
+        <v>-80371</v>
       </c>
       <c r="O2" t="n">
         <v>-8.85</v>
       </c>
-      <c r="P2" t="s">
-        <v>40</v>
+      <c r="P2" t="n">
+        <v>-1515104</v>
       </c>
       <c r="Q2" t="n">
         <v>-38.48</v>
       </c>
-      <c r="R2" t="s">
-        <v>41</v>
+      <c r="R2" t="n">
+        <v>-247954</v>
       </c>
       <c r="S2" t="n">
         <v>-36.93</v>
       </c>
-      <c r="T2" t="s">
-        <v>42</v>
+      <c r="T2" t="n">
+        <v>-1207176</v>
       </c>
       <c r="U2" t="n">
         <v>-163.7</v>
       </c>
-      <c r="V2" t="s">
-        <v>43</v>
+      <c r="V2" t="n">
+        <v>-3115400</v>
       </c>
       <c r="W2" t="n">
         <v>-567.65</v>
       </c>
-      <c r="X2" t="s">
-        <v>44</v>
+      <c r="X2" t="n">
+        <v>-5157635</v>
       </c>
       <c r="Y2" t="n">
         <v>-182.47</v>
       </c>
-      <c r="Z2" t="s">
-        <v>45</v>
+      <c r="Z2" t="n">
+        <v>182681</v>
       </c>
       <c r="AA2" t="n">
         <v>33.75</v>
       </c>
-      <c r="AB2" t="s">
-        <v>46</v>
+      <c r="AB2" t="n">
+        <v>-462611</v>
       </c>
       <c r="AC2" t="n">
         <v>-56.4</v>
       </c>
-      <c r="AD2" t="s">
-        <v>47</v>
+      <c r="AD2" t="n">
+        <v>2599130</v>
       </c>
       <c r="AE2" t="n">
         <v>349.73</v>
       </c>
-      <c r="AF2" t="s">
-        <v>48</v>
+      <c r="AF2" t="n">
+        <v>2037927</v>
       </c>
       <c r="AG2" t="n">
         <v>64.90000000000001</v>
@@ -2347,100 +802,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>190636</v>
       </c>
       <c r="C3" t="n">
         <v>25.72</v>
       </c>
-      <c r="D3" t="s">
-        <v>51</v>
+      <c r="D3" t="n">
+        <v>-64130</v>
       </c>
       <c r="E3" t="n">
         <v>-6.1</v>
       </c>
-      <c r="F3" t="s">
-        <v>52</v>
+      <c r="F3" t="n">
+        <v>129177</v>
       </c>
       <c r="G3" t="n">
         <v>13.66</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
+      <c r="H3" t="n">
+        <v>604890</v>
       </c>
       <c r="I3" t="n">
         <v>14.17</v>
       </c>
-      <c r="J3" t="s">
-        <v>54</v>
+      <c r="J3" t="n">
+        <v>23990</v>
       </c>
       <c r="K3" t="n">
         <v>2.35</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
+      <c r="L3" t="n">
+        <v>-143516</v>
       </c>
       <c r="M3" t="n">
         <v>-16.12</v>
       </c>
-      <c r="N3" t="s">
-        <v>56</v>
+      <c r="N3" t="n">
+        <v>63195</v>
       </c>
       <c r="O3" t="n">
         <v>6.96</v>
       </c>
-      <c r="P3" t="s">
-        <v>57</v>
+      <c r="P3" t="n">
+        <v>-248417</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.31</v>
       </c>
-      <c r="R3" t="s">
-        <v>58</v>
+      <c r="R3" t="n">
+        <v>-2986</v>
       </c>
       <c r="S3" t="n">
         <v>-0.44</v>
       </c>
-      <c r="T3" t="s">
-        <v>59</v>
+      <c r="T3" t="n">
+        <v>-11575</v>
       </c>
       <c r="U3" t="n">
         <v>-1.57</v>
       </c>
-      <c r="V3" t="s">
-        <v>60</v>
+      <c r="V3" t="n">
+        <v>-422650</v>
       </c>
       <c r="W3" t="n">
         <v>-77.01000000000001</v>
       </c>
-      <c r="X3" t="s">
-        <v>61</v>
+      <c r="X3" t="n">
+        <v>-591281</v>
       </c>
       <c r="Y3" t="n">
         <v>-20.92</v>
       </c>
-      <c r="Z3" t="s">
-        <v>62</v>
+      <c r="Z3" t="n">
+        <v>-60259</v>
       </c>
       <c r="AA3" t="n">
         <v>-11.13</v>
       </c>
-      <c r="AB3" t="s">
-        <v>63</v>
+      <c r="AB3" t="n">
+        <v>-53957</v>
       </c>
       <c r="AC3" t="n">
         <v>-6.58</v>
       </c>
-      <c r="AD3" t="s">
-        <v>64</v>
+      <c r="AD3" t="n">
+        <v>123985</v>
       </c>
       <c r="AE3" t="n">
         <v>16.68</v>
       </c>
-      <c r="AF3" t="s">
-        <v>65</v>
+      <c r="AF3" t="n">
+        <v>43582</v>
       </c>
       <c r="AG3" t="n">
         <v>1.39</v>
@@ -2448,100 +903,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37846</v>
       </c>
       <c r="C4" t="n">
         <v>5.11</v>
       </c>
-      <c r="D4" t="s">
-        <v>68</v>
+      <c r="D4" t="n">
+        <v>142843</v>
       </c>
       <c r="E4" t="n">
         <v>13.59</v>
       </c>
-      <c r="F4" t="s">
-        <v>69</v>
+      <c r="F4" t="n">
+        <v>232074</v>
       </c>
       <c r="G4" t="n">
         <v>24.54</v>
       </c>
-      <c r="H4" t="s">
-        <v>70</v>
+      <c r="H4" t="n">
+        <v>488267</v>
       </c>
       <c r="I4" t="n">
         <v>11.44</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
+      <c r="J4" t="n">
+        <v>28221</v>
       </c>
       <c r="K4" t="n">
         <v>2.77</v>
       </c>
-      <c r="L4" t="s">
-        <v>72</v>
+      <c r="L4" t="n">
+        <v>334821</v>
       </c>
       <c r="M4" t="n">
         <v>37.62</v>
       </c>
-      <c r="N4" t="s">
-        <v>73</v>
+      <c r="N4" t="n">
+        <v>271941</v>
       </c>
       <c r="O4" t="n">
         <v>29.93</v>
       </c>
-      <c r="P4" t="s">
-        <v>74</v>
+      <c r="P4" t="n">
+        <v>727550</v>
       </c>
       <c r="Q4" t="n">
         <v>18.48</v>
       </c>
-      <c r="R4" t="s">
-        <v>75</v>
+      <c r="R4" t="n">
+        <v>36706</v>
       </c>
       <c r="S4" t="n">
         <v>5.47</v>
       </c>
-      <c r="T4" t="s">
-        <v>76</v>
+      <c r="T4" t="n">
+        <v>341477</v>
       </c>
       <c r="U4" t="n">
         <v>46.31</v>
       </c>
-      <c r="V4" t="s">
-        <v>77</v>
+      <c r="V4" t="n">
+        <v>311663</v>
       </c>
       <c r="W4" t="n">
         <v>56.79</v>
       </c>
-      <c r="X4" t="s">
-        <v>78</v>
+      <c r="X4" t="n">
+        <v>720661</v>
       </c>
       <c r="Y4" t="n">
         <v>25.5</v>
       </c>
-      <c r="Z4" t="s">
-        <v>79</v>
+      <c r="Z4" t="n">
+        <v>29661</v>
       </c>
       <c r="AA4" t="n">
         <v>5.48</v>
       </c>
-      <c r="AB4" t="s">
-        <v>80</v>
+      <c r="AB4" t="n">
+        <v>138371</v>
       </c>
       <c r="AC4" t="n">
         <v>16.87</v>
       </c>
-      <c r="AD4" t="s">
-        <v>81</v>
+      <c r="AD4" t="n">
+        <v>129757</v>
       </c>
       <c r="AE4" t="n">
         <v>17.46</v>
       </c>
-      <c r="AF4" t="s">
-        <v>82</v>
+      <c r="AF4" t="n">
+        <v>722124</v>
       </c>
       <c r="AG4" t="n">
         <v>23</v>
@@ -2549,7 +1004,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -2557,8 +1012,8 @@
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>84</v>
+      <c r="H5" t="n">
+        <v>654569</v>
       </c>
       <c r="I5" t="n">
         <v>15.34</v>
@@ -2569,48 +1024,48 @@
       <c r="M5" t="s"/>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
-      <c r="P5" t="s">
-        <v>85</v>
+      <c r="P5" t="n">
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
-      <c r="T5" t="s">
-        <v>86</v>
+      <c r="T5" t="n">
+        <v>39907</v>
       </c>
       <c r="U5" t="n">
         <v>5.41</v>
       </c>
-      <c r="V5" t="s">
-        <v>87</v>
+      <c r="V5" t="n">
+        <v>6074</v>
       </c>
       <c r="W5" t="n">
         <v>1.11</v>
       </c>
-      <c r="X5" t="s">
-        <v>88</v>
+      <c r="X5" t="n">
+        <v>980475</v>
       </c>
       <c r="Y5" t="n">
         <v>34.69</v>
       </c>
       <c r="Z5" t="s"/>
       <c r="AA5" t="s"/>
-      <c r="AB5" t="s">
-        <v>85</v>
+      <c r="AB5" t="n">
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
-      <c r="AD5" t="s">
-        <v>85</v>
+      <c r="AD5" t="n">
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
-      <c r="AF5" t="s">
-        <v>85</v>
+      <c r="AF5" t="n">
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -2618,28 +1073,28 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>85</v>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>85</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>85</v>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2671,28 +1126,28 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>85</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>85</v>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
-        <v>85</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>85</v>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2724,52 +1179,52 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-40917</v>
       </c>
       <c r="C8" t="n">
         <v>-5.52</v>
       </c>
-      <c r="D8" t="s">
-        <v>93</v>
+      <c r="D8" t="n">
+        <v>-14381</v>
       </c>
       <c r="E8" t="n">
         <v>-1.37</v>
       </c>
-      <c r="F8" t="s">
-        <v>94</v>
+      <c r="F8" t="n">
+        <v>16151</v>
       </c>
       <c r="G8" t="n">
         <v>1.71</v>
       </c>
-      <c r="H8" t="s">
-        <v>95</v>
+      <c r="H8" t="n">
+        <v>-79472</v>
       </c>
       <c r="I8" t="n">
         <v>-1.86</v>
       </c>
-      <c r="J8" t="s">
-        <v>96</v>
+      <c r="J8" t="n">
+        <v>-38065</v>
       </c>
       <c r="K8" t="n">
         <v>-3.73</v>
       </c>
-      <c r="L8" t="s">
-        <v>97</v>
+      <c r="L8" t="n">
+        <v>39439</v>
       </c>
       <c r="M8" t="n">
         <v>4.43</v>
       </c>
-      <c r="N8" t="s">
-        <v>98</v>
+      <c r="N8" t="n">
+        <v>-24274</v>
       </c>
       <c r="O8" t="n">
         <v>-2.67</v>
       </c>
-      <c r="P8" t="s">
-        <v>99</v>
+      <c r="P8" t="n">
+        <v>-128336</v>
       </c>
       <c r="Q8" t="n">
         <v>-3.26</v>
@@ -2793,100 +1248,100 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-47330</v>
       </c>
       <c r="C9" t="n">
         <v>-6.39</v>
       </c>
-      <c r="D9" t="s">
-        <v>102</v>
+      <c r="D9" t="n">
+        <v>-509233</v>
       </c>
       <c r="E9" t="n">
         <v>-48.45</v>
       </c>
-      <c r="F9" t="s">
-        <v>103</v>
+      <c r="F9" t="n">
+        <v>1504967</v>
       </c>
       <c r="G9" t="n">
         <v>159.13</v>
       </c>
-      <c r="H9" t="s">
-        <v>104</v>
+      <c r="H9" t="n">
+        <v>3889029</v>
       </c>
       <c r="I9" t="n">
         <v>91.11</v>
       </c>
-      <c r="J9" t="s">
-        <v>105</v>
+      <c r="J9" t="n">
+        <v>530985</v>
       </c>
       <c r="K9" t="n">
         <v>52.09</v>
       </c>
-      <c r="L9" t="s">
-        <v>106</v>
+      <c r="L9" t="n">
+        <v>-1908583</v>
       </c>
       <c r="M9" t="n">
         <v>-214.43</v>
       </c>
-      <c r="N9" t="s">
-        <v>107</v>
+      <c r="N9" t="n">
+        <v>44348</v>
       </c>
       <c r="O9" t="n">
         <v>4.88</v>
       </c>
-      <c r="P9" t="s">
-        <v>108</v>
+      <c r="P9" t="n">
+        <v>-1045280</v>
       </c>
       <c r="Q9" t="n">
         <v>-26.55</v>
       </c>
-      <c r="R9" t="s">
-        <v>109</v>
+      <c r="R9" t="n">
+        <v>-450076</v>
       </c>
       <c r="S9" t="n">
         <v>-67.04000000000001</v>
       </c>
-      <c r="T9" t="s">
-        <v>110</v>
+      <c r="T9" t="n">
+        <v>-1261037</v>
       </c>
       <c r="U9" t="n">
         <v>-171</v>
       </c>
-      <c r="V9" t="s">
-        <v>111</v>
+      <c r="V9" t="n">
+        <v>-2822732</v>
       </c>
       <c r="W9" t="n">
         <v>-514.33</v>
       </c>
-      <c r="X9" t="s">
-        <v>112</v>
+      <c r="X9" t="n">
+        <v>-5168459</v>
       </c>
       <c r="Y9" t="n">
         <v>-182.86</v>
       </c>
-      <c r="Z9" t="s">
-        <v>113</v>
+      <c r="Z9" t="n">
+        <v>126972</v>
       </c>
       <c r="AA9" t="n">
         <v>23.46</v>
       </c>
-      <c r="AB9" t="s">
-        <v>114</v>
+      <c r="AB9" t="n">
+        <v>-486403</v>
       </c>
       <c r="AC9" t="n">
         <v>-59.3</v>
       </c>
-      <c r="AD9" t="s">
-        <v>115</v>
+      <c r="AD9" t="n">
+        <v>2388414</v>
       </c>
       <c r="AE9" t="n">
         <v>321.38</v>
       </c>
-      <c r="AF9" t="s">
-        <v>116</v>
+      <c r="AF9" t="n">
+        <v>1836923</v>
       </c>
       <c r="AG9" t="n">
         <v>58.5</v>
@@ -2894,100 +1349,100 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>218725</v>
       </c>
       <c r="C10" t="n">
         <v>29.51</v>
       </c>
-      <c r="D10" t="s">
-        <v>119</v>
+      <c r="D10" t="n">
+        <v>247554</v>
       </c>
       <c r="E10" t="n">
         <v>23.55</v>
       </c>
-      <c r="F10" t="s">
-        <v>120</v>
+      <c r="F10" t="n">
+        <v>238264</v>
       </c>
       <c r="G10" t="n">
         <v>25.19</v>
       </c>
-      <c r="H10" t="s">
-        <v>121</v>
+      <c r="H10" t="n">
+        <v>924090</v>
       </c>
       <c r="I10" t="n">
         <v>21.65</v>
       </c>
-      <c r="J10" t="s">
-        <v>122</v>
+      <c r="J10" t="n">
+        <v>232260</v>
       </c>
       <c r="K10" t="n">
         <v>22.78</v>
       </c>
-      <c r="L10" t="s">
-        <v>123</v>
+      <c r="L10" t="n">
+        <v>236984</v>
       </c>
       <c r="M10" t="n">
         <v>26.63</v>
       </c>
-      <c r="N10" t="s">
-        <v>124</v>
+      <c r="N10" t="n">
+        <v>228805</v>
       </c>
       <c r="O10" t="n">
         <v>25.18</v>
       </c>
-      <c r="P10" t="s">
-        <v>125</v>
+      <c r="P10" t="n">
+        <v>923088</v>
       </c>
       <c r="Q10" t="n">
         <v>23.44</v>
       </c>
-      <c r="R10" t="s">
-        <v>126</v>
+      <c r="R10" t="n">
+        <v>158683</v>
       </c>
       <c r="S10" t="n">
         <v>23.64</v>
       </c>
-      <c r="T10" t="s">
-        <v>127</v>
+      <c r="T10" t="n">
+        <v>156702</v>
       </c>
       <c r="U10" t="n">
         <v>21.25</v>
       </c>
-      <c r="V10" t="s">
-        <v>128</v>
+      <c r="V10" t="n">
+        <v>154072</v>
       </c>
       <c r="W10" t="n">
         <v>28.07</v>
       </c>
-      <c r="X10" t="s">
-        <v>129</v>
+      <c r="X10" t="n">
+        <v>630157</v>
       </c>
       <c r="Y10" t="n">
         <v>22.29</v>
       </c>
-      <c r="Z10" t="s">
-        <v>130</v>
+      <c r="Z10" t="n">
+        <v>152490</v>
       </c>
       <c r="AA10" t="n">
         <v>28.18</v>
       </c>
-      <c r="AB10" t="s">
-        <v>131</v>
+      <c r="AB10" t="n">
+        <v>182361</v>
       </c>
       <c r="AC10" t="n">
         <v>22.23</v>
       </c>
-      <c r="AD10" t="s">
-        <v>132</v>
+      <c r="AD10" t="n">
+        <v>182024</v>
       </c>
       <c r="AE10" t="n">
         <v>24.49</v>
       </c>
-      <c r="AF10" t="s">
-        <v>133</v>
+      <c r="AF10" t="n">
+        <v>642801</v>
       </c>
       <c r="AG10" t="n">
         <v>20.47</v>
@@ -2995,100 +1450,100 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s">
-        <v>135</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>209446</v>
       </c>
       <c r="C11" t="n">
         <v>28.26</v>
       </c>
-      <c r="D11" t="s">
-        <v>136</v>
+      <c r="D11" t="n">
+        <v>249631</v>
       </c>
       <c r="E11" t="n">
         <v>23.75</v>
       </c>
-      <c r="F11" t="s">
-        <v>137</v>
+      <c r="F11" t="n">
+        <v>241873</v>
       </c>
       <c r="G11" t="n">
         <v>25.58</v>
       </c>
-      <c r="H11" t="s">
-        <v>138</v>
+      <c r="H11" t="n">
+        <v>975713</v>
       </c>
       <c r="I11" t="n">
         <v>22.86</v>
       </c>
-      <c r="J11" t="s">
-        <v>139</v>
+      <c r="J11" t="n">
+        <v>236060</v>
       </c>
       <c r="K11" t="n">
         <v>23.16</v>
       </c>
-      <c r="L11" t="s">
-        <v>140</v>
+      <c r="L11" t="n">
+        <v>281772</v>
       </c>
       <c r="M11" t="n">
         <v>31.66</v>
       </c>
-      <c r="N11" t="s">
-        <v>141</v>
+      <c r="N11" t="n">
+        <v>252710</v>
       </c>
       <c r="O11" t="n">
         <v>27.82</v>
       </c>
-      <c r="P11" t="s">
-        <v>142</v>
+      <c r="P11" t="n">
+        <v>1025600</v>
       </c>
       <c r="Q11" t="n">
         <v>26.05</v>
       </c>
-      <c r="R11" t="s">
-        <v>143</v>
+      <c r="R11" t="n">
+        <v>164009</v>
       </c>
       <c r="S11" t="n">
         <v>24.43</v>
       </c>
-      <c r="T11" t="s">
-        <v>144</v>
+      <c r="T11" t="n">
+        <v>171175</v>
       </c>
       <c r="U11" t="n">
         <v>23.21</v>
       </c>
-      <c r="V11" t="s">
-        <v>145</v>
+      <c r="V11" t="n">
+        <v>148306</v>
       </c>
       <c r="W11" t="n">
         <v>27.02</v>
       </c>
-      <c r="X11" t="s">
-        <v>146</v>
+      <c r="X11" t="n">
+        <v>672328</v>
       </c>
       <c r="Y11" t="n">
         <v>23.79</v>
       </c>
-      <c r="Z11" t="s">
-        <v>147</v>
+      <c r="Z11" t="n">
+        <v>160886</v>
       </c>
       <c r="AA11" t="n">
         <v>29.73</v>
       </c>
-      <c r="AB11" t="s">
-        <v>148</v>
+      <c r="AB11" t="n">
+        <v>221413</v>
       </c>
       <c r="AC11" t="n">
         <v>26.99</v>
       </c>
-      <c r="AD11" t="s">
-        <v>149</v>
+      <c r="AD11" t="n">
+        <v>247276</v>
       </c>
       <c r="AE11" t="n">
         <v>33.27</v>
       </c>
-      <c r="AF11" t="s">
-        <v>150</v>
+      <c r="AF11" t="n">
+        <v>884616</v>
       </c>
       <c r="AG11" t="n">
         <v>28.17</v>
@@ -3096,100 +1551,100 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" t="s">
-        <v>152</v>
+        <v>42</v>
+      </c>
+      <c r="B12" t="n">
+        <v>261087</v>
       </c>
       <c r="C12" t="n">
         <v>35.23</v>
       </c>
-      <c r="D12" t="s">
-        <v>153</v>
+      <c r="D12" t="n">
+        <v>96878</v>
       </c>
       <c r="E12" t="n">
         <v>9.220000000000001</v>
       </c>
-      <c r="F12" t="s">
-        <v>154</v>
+      <c r="F12" t="n">
+        <v>-100718</v>
       </c>
       <c r="G12" t="n">
         <v>-10.65</v>
       </c>
-      <c r="H12" t="s">
-        <v>155</v>
+      <c r="H12" t="n">
+        <v>395422</v>
       </c>
       <c r="I12" t="n">
         <v>9.26</v>
       </c>
-      <c r="J12" t="s">
-        <v>156</v>
+      <c r="J12" t="n">
+        <v>237773</v>
       </c>
       <c r="K12" t="n">
         <v>23.32</v>
       </c>
-      <c r="L12" t="s">
-        <v>157</v>
+      <c r="L12" t="n">
+        <v>-239373</v>
       </c>
       <c r="M12" t="n">
         <v>-26.89</v>
       </c>
-      <c r="N12" t="s">
-        <v>158</v>
+      <c r="N12" t="n">
+        <v>148993</v>
       </c>
       <c r="O12" t="n">
         <v>16.4</v>
       </c>
-      <c r="P12" t="s">
-        <v>159</v>
+      <c r="P12" t="n">
+        <v>610930</v>
       </c>
       <c r="Q12" t="n">
         <v>15.51</v>
       </c>
-      <c r="R12" t="s">
-        <v>160</v>
+      <c r="R12" t="n">
+        <v>-242379</v>
       </c>
       <c r="S12" t="n">
         <v>-36.1</v>
       </c>
-      <c r="T12" t="s">
-        <v>161</v>
+      <c r="T12" t="n">
+        <v>-64441</v>
       </c>
       <c r="U12" t="n">
         <v>-8.74</v>
       </c>
-      <c r="V12" t="s">
-        <v>162</v>
+      <c r="V12" t="n">
+        <v>350626</v>
       </c>
       <c r="W12" t="n">
         <v>63.89</v>
       </c>
-      <c r="X12" t="s">
-        <v>163</v>
+      <c r="X12" t="n">
+        <v>-8515</v>
       </c>
       <c r="Y12" t="n">
         <v>-0.3</v>
       </c>
-      <c r="Z12" t="s">
-        <v>164</v>
+      <c r="Z12" t="n">
+        <v>-70501</v>
       </c>
       <c r="AA12" t="n">
         <v>-13.03</v>
       </c>
-      <c r="AB12" t="s">
-        <v>165</v>
+      <c r="AB12" t="n">
+        <v>-30270</v>
       </c>
       <c r="AC12" t="n">
         <v>-3.69</v>
       </c>
-      <c r="AD12" t="s">
-        <v>166</v>
+      <c r="AD12" t="n">
+        <v>-247279</v>
       </c>
       <c r="AE12" t="n">
         <v>-33.27</v>
       </c>
-      <c r="AF12" t="s">
-        <v>167</v>
+      <c r="AF12" t="n">
+        <v>-269718</v>
       </c>
       <c r="AG12" t="n">
         <v>-8.59</v>
@@ -3197,169 +1652,169 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" t="s">
-        <v>169</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.13</v>
       </c>
       <c r="C13" t="s"/>
-      <c r="D13" t="s">
-        <v>170</v>
+      <c r="D13" t="n">
+        <v>-0.05</v>
       </c>
       <c r="E13" t="s"/>
-      <c r="F13" t="s">
-        <v>171</v>
+      <c r="F13" t="n">
+        <v>0.29</v>
       </c>
       <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>172</v>
+      <c r="H13" t="n">
+        <v>1.97</v>
       </c>
       <c r="I13" t="s"/>
-      <c r="J13" t="s">
-        <v>173</v>
+      <c r="J13" t="n">
+        <v>-0.06</v>
       </c>
       <c r="K13" t="s"/>
-      <c r="L13" t="s">
-        <v>174</v>
+      <c r="L13" t="n">
+        <v>0.06</v>
       </c>
       <c r="M13" t="s"/>
-      <c r="N13" t="s">
-        <v>175</v>
+      <c r="N13" t="n">
+        <v>0.24</v>
       </c>
       <c r="O13" t="s"/>
-      <c r="P13" t="s">
-        <v>176</v>
+      <c r="P13" t="n">
+        <v>0.03</v>
       </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s">
-        <v>177</v>
+      <c r="R13" t="n">
+        <v>-0.29</v>
       </c>
       <c r="S13" t="s"/>
-      <c r="T13" t="s">
-        <v>178</v>
+      <c r="T13" t="n">
+        <v>0.17</v>
       </c>
       <c r="U13" t="s"/>
-      <c r="V13" t="s">
-        <v>179</v>
+      <c r="V13" t="n">
+        <v>-0.5</v>
       </c>
       <c r="W13" t="s"/>
-      <c r="X13" t="s">
-        <v>180</v>
+      <c r="X13" t="n">
+        <v>0.34</v>
       </c>
       <c r="Y13" t="s"/>
-      <c r="Z13" t="s">
-        <v>177</v>
+      <c r="Z13" t="n">
+        <v>-0.29</v>
       </c>
       <c r="AA13" t="s"/>
-      <c r="AB13" t="s">
-        <v>181</v>
+      <c r="AB13" t="n">
+        <v>-0.1</v>
       </c>
       <c r="AC13" t="s"/>
-      <c r="AD13" t="s">
-        <v>182</v>
+      <c r="AD13" t="n">
+        <v>0.21</v>
       </c>
       <c r="AE13" t="s"/>
-      <c r="AF13" t="s">
-        <v>183</v>
+      <c r="AF13" t="n">
+        <v>0.04</v>
       </c>
       <c r="AG13" t="s"/>
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14" t="s">
-        <v>185</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-25835</v>
       </c>
       <c r="C14" t="n">
         <v>-3.49</v>
       </c>
-      <c r="D14" t="s">
-        <v>186</v>
+      <c r="D14" t="n">
+        <v>-3310</v>
       </c>
       <c r="E14" t="n">
         <v>-0.31</v>
       </c>
-      <c r="F14" t="s">
-        <v>187</v>
+      <c r="F14" t="n">
+        <v>23287</v>
       </c>
       <c r="G14" t="n">
         <v>2.46</v>
       </c>
-      <c r="H14" t="s">
-        <v>188</v>
+      <c r="H14" t="n">
+        <v>48877</v>
       </c>
       <c r="I14" t="n">
         <v>1.15</v>
       </c>
-      <c r="J14" t="s">
-        <v>189</v>
+      <c r="J14" t="n">
+        <v>-7585</v>
       </c>
       <c r="K14" t="n">
         <v>-0.74</v>
       </c>
-      <c r="L14" t="s">
-        <v>190</v>
+      <c r="L14" t="n">
+        <v>26516</v>
       </c>
       <c r="M14" t="n">
         <v>2.98</v>
       </c>
-      <c r="N14" t="s">
-        <v>191</v>
+      <c r="N14" t="n">
+        <v>12564</v>
       </c>
       <c r="O14" t="n">
         <v>1.38</v>
       </c>
-      <c r="P14" t="s">
-        <v>192</v>
+      <c r="P14" t="n">
+        <v>-44487</v>
       </c>
       <c r="Q14" t="n">
         <v>-1.13</v>
       </c>
-      <c r="R14" t="s">
-        <v>193</v>
+      <c r="R14" t="n">
+        <v>-26257</v>
       </c>
       <c r="S14" t="n">
         <v>-3.91</v>
       </c>
-      <c r="T14" t="s">
-        <v>194</v>
+      <c r="T14" t="n">
+        <v>84254</v>
       </c>
       <c r="U14" t="n">
         <v>11.43</v>
       </c>
-      <c r="V14" t="s">
-        <v>195</v>
+      <c r="V14" t="n">
+        <v>-43210</v>
       </c>
       <c r="W14" t="n">
         <v>-7.87</v>
       </c>
-      <c r="X14" t="s">
-        <v>196</v>
+      <c r="X14" t="n">
+        <v>-18421</v>
       </c>
       <c r="Y14" t="n">
         <v>-0.65</v>
       </c>
-      <c r="Z14" t="s">
-        <v>197</v>
+      <c r="Z14" t="n">
+        <v>-2543</v>
       </c>
       <c r="AA14" t="n">
         <v>-0.47</v>
       </c>
-      <c r="AB14" t="s">
-        <v>198</v>
+      <c r="AB14" t="n">
+        <v>20075</v>
       </c>
       <c r="AC14" t="n">
         <v>2.45</v>
       </c>
-      <c r="AD14" t="s">
-        <v>199</v>
+      <c r="AD14" t="n">
+        <v>14964</v>
       </c>
       <c r="AE14" t="n">
         <v>2.01</v>
       </c>
-      <c r="AF14" t="s">
-        <v>200</v>
+      <c r="AF14" t="n">
+        <v>69355</v>
       </c>
       <c r="AG14" t="n">
         <v>2.21</v>
@@ -3367,7 +1822,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s"/>
       <c r="C15" t="s"/>
@@ -3375,8 +1830,8 @@
       <c r="E15" t="s"/>
       <c r="F15" t="s"/>
       <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>202</v>
+      <c r="H15" t="n">
+        <v>5466</v>
       </c>
       <c r="I15" t="n">
         <v>0.13</v>
@@ -3387,8 +1842,8 @@
       <c r="M15" t="s"/>
       <c r="N15" t="s"/>
       <c r="O15" t="s"/>
-      <c r="P15" t="s">
-        <v>203</v>
+      <c r="P15" t="n">
+        <v>-4579</v>
       </c>
       <c r="Q15" t="n">
         <v>-0.12</v>
@@ -3412,100 +1867,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" t="s">
-        <v>205</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>526</v>
       </c>
       <c r="C16" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="D16" t="s">
-        <v>206</v>
+      <c r="D16" t="n">
+        <v>-2099</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2</v>
       </c>
-      <c r="F16" t="s">
-        <v>207</v>
+      <c r="F16" t="n">
+        <v>-20</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>208</v>
+      <c r="H16" t="n">
+        <v>956</v>
       </c>
       <c r="I16" t="n">
         <v>0.02</v>
       </c>
-      <c r="J16" t="s">
-        <v>209</v>
+      <c r="J16" t="n">
+        <v>-7882</v>
       </c>
       <c r="K16" t="n">
         <v>-0.77</v>
       </c>
-      <c r="L16" t="s">
-        <v>210</v>
+      <c r="L16" t="n">
+        <v>-2100</v>
       </c>
       <c r="M16" t="n">
         <v>-0.24</v>
       </c>
-      <c r="N16" t="s">
-        <v>211</v>
+      <c r="N16" t="n">
+        <v>-232</v>
       </c>
       <c r="O16" t="n">
         <v>-0.03</v>
       </c>
-      <c r="P16" t="s">
-        <v>212</v>
+      <c r="P16" t="n">
+        <v>-17916</v>
       </c>
       <c r="Q16" t="n">
         <v>-0.45</v>
       </c>
-      <c r="R16" t="s">
-        <v>213</v>
+      <c r="R16" t="n">
+        <v>-5220</v>
       </c>
       <c r="S16" t="n">
         <v>-0.78</v>
       </c>
-      <c r="T16" t="s">
-        <v>214</v>
+      <c r="T16" t="n">
+        <v>-9849</v>
       </c>
       <c r="U16" t="n">
         <v>-1.34</v>
       </c>
-      <c r="V16" t="s">
-        <v>215</v>
+      <c r="V16" t="n">
+        <v>-39344</v>
       </c>
       <c r="W16" t="n">
         <v>-7.17</v>
       </c>
-      <c r="X16" t="s">
-        <v>216</v>
+      <c r="X16" t="n">
+        <v>-117219</v>
       </c>
       <c r="Y16" t="n">
         <v>-4.15</v>
       </c>
-      <c r="Z16" t="s">
-        <v>217</v>
+      <c r="Z16" t="n">
+        <v>-20187</v>
       </c>
       <c r="AA16" t="n">
         <v>-3.73</v>
       </c>
-      <c r="AB16" t="s">
-        <v>218</v>
+      <c r="AB16" t="n">
+        <v>-16627</v>
       </c>
       <c r="AC16" t="n">
         <v>-2.03</v>
       </c>
-      <c r="AD16" t="s">
-        <v>219</v>
+      <c r="AD16" t="n">
+        <v>-1428</v>
       </c>
       <c r="AE16" t="n">
         <v>-0.19</v>
       </c>
-      <c r="AF16" t="s">
-        <v>220</v>
+      <c r="AF16" t="n">
+        <v>-37437</v>
       </c>
       <c r="AG16" t="n">
         <v>-1.19</v>
@@ -3513,7 +1968,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="s"/>
@@ -3537,8 +1992,8 @@
       <c r="U17" t="s"/>
       <c r="V17" t="s"/>
       <c r="W17" t="s"/>
-      <c r="X17" t="s">
-        <v>222</v>
+      <c r="X17" t="n">
+        <v>-13679</v>
       </c>
       <c r="Y17" t="n">
         <v>-0.48</v>
@@ -3549,8 +2004,8 @@
       <c r="AC17" t="s"/>
       <c r="AD17" t="s"/>
       <c r="AE17" t="s"/>
-      <c r="AF17" t="s">
-        <v>223</v>
+      <c r="AF17" t="n">
+        <v>-2334</v>
       </c>
       <c r="AG17" t="n">
         <v>-0.07000000000000001</v>
@@ -3558,100 +2013,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B18" t="s">
-        <v>225</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8876</v>
       </c>
       <c r="C18" t="n">
         <v>1.2</v>
       </c>
-      <c r="D18" t="s">
-        <v>226</v>
+      <c r="D18" t="n">
+        <v>11403</v>
       </c>
       <c r="E18" t="n">
         <v>1.08</v>
       </c>
-      <c r="F18" t="s">
-        <v>227</v>
+      <c r="F18" t="n">
+        <v>12219</v>
       </c>
       <c r="G18" t="n">
         <v>1.29</v>
       </c>
-      <c r="H18" t="s">
-        <v>228</v>
+      <c r="H18" t="n">
+        <v>46056</v>
       </c>
       <c r="I18" t="n">
         <v>1.08</v>
       </c>
-      <c r="J18" t="s">
-        <v>229</v>
+      <c r="J18" t="n">
+        <v>9622</v>
       </c>
       <c r="K18" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="L18" t="s">
-        <v>230</v>
+      <c r="L18" t="n">
+        <v>7604</v>
       </c>
       <c r="M18" t="n">
         <v>0.85</v>
       </c>
-      <c r="N18" t="s">
-        <v>231</v>
+      <c r="N18" t="n">
+        <v>12267</v>
       </c>
       <c r="O18" t="n">
         <v>1.35</v>
       </c>
-      <c r="P18" t="s">
-        <v>232</v>
+      <c r="P18" t="n">
+        <v>45915</v>
       </c>
       <c r="Q18" t="n">
         <v>1.17</v>
       </c>
-      <c r="R18" t="s">
-        <v>233</v>
+      <c r="R18" t="n">
+        <v>17640</v>
       </c>
       <c r="S18" t="n">
         <v>2.63</v>
       </c>
-      <c r="T18" t="s">
-        <v>234</v>
+      <c r="T18" t="n">
+        <v>12189</v>
       </c>
       <c r="U18" t="n">
         <v>1.65</v>
       </c>
-      <c r="V18" t="s">
-        <v>235</v>
+      <c r="V18" t="n">
+        <v>8364</v>
       </c>
       <c r="W18" t="n">
         <v>1.52</v>
       </c>
-      <c r="X18" t="s">
-        <v>236</v>
+      <c r="X18" t="n">
+        <v>44136</v>
       </c>
       <c r="Y18" t="n">
         <v>1.56</v>
       </c>
-      <c r="Z18" t="s">
-        <v>237</v>
+      <c r="Z18" t="n">
+        <v>7654</v>
       </c>
       <c r="AA18" t="n">
         <v>1.41</v>
       </c>
-      <c r="AB18" t="s">
-        <v>238</v>
+      <c r="AB18" t="n">
+        <v>4996</v>
       </c>
       <c r="AC18" t="n">
         <v>0.61</v>
       </c>
-      <c r="AD18" t="s">
-        <v>239</v>
+      <c r="AD18" t="n">
+        <v>5381</v>
       </c>
       <c r="AE18" t="n">
         <v>0.72</v>
       </c>
-      <c r="AF18" t="s">
-        <v>240</v>
+      <c r="AF18" t="n">
+        <v>23191</v>
       </c>
       <c r="AG18" t="n">
         <v>0.74</v>
@@ -3659,100 +2114,100 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" t="s">
-        <v>242</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>59637</v>
       </c>
       <c r="C19" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="D19" t="s">
-        <v>243</v>
+      <c r="D19" t="n">
+        <v>-45095</v>
       </c>
       <c r="E19" t="n">
         <v>-4.29</v>
       </c>
-      <c r="F19" t="s">
-        <v>244</v>
+      <c r="F19" t="n">
+        <v>178440</v>
       </c>
       <c r="G19" t="n">
         <v>18.87</v>
       </c>
-      <c r="H19" t="s">
-        <v>245</v>
+      <c r="H19" t="n">
+        <v>1289927</v>
       </c>
       <c r="I19" t="n">
         <v>30.22</v>
       </c>
-      <c r="J19" t="s">
-        <v>246</v>
+      <c r="J19" t="n">
+        <v>-34204</v>
       </c>
       <c r="K19" t="n">
         <v>-3.36</v>
       </c>
-      <c r="L19" t="s">
-        <v>247</v>
+      <c r="L19" t="n">
+        <v>45792</v>
       </c>
       <c r="M19" t="n">
         <v>5.14</v>
       </c>
-      <c r="N19" t="s">
-        <v>248</v>
+      <c r="N19" t="n">
+        <v>179848</v>
       </c>
       <c r="O19" t="n">
         <v>19.8</v>
       </c>
-      <c r="P19" t="s">
-        <v>249</v>
+      <c r="P19" t="n">
+        <v>53788</v>
       </c>
       <c r="Q19" t="n">
         <v>1.37</v>
       </c>
-      <c r="R19" t="s">
-        <v>250</v>
+      <c r="R19" t="n">
+        <v>-183290</v>
       </c>
       <c r="S19" t="n">
         <v>-27.3</v>
       </c>
-      <c r="T19" t="s">
-        <v>251</v>
+      <c r="T19" t="n">
+        <v>115684</v>
       </c>
       <c r="U19" t="n">
         <v>15.69</v>
       </c>
-      <c r="V19" t="s">
-        <v>252</v>
+      <c r="V19" t="n">
+        <v>-316976</v>
       </c>
       <c r="W19" t="n">
         <v>-57.76</v>
       </c>
-      <c r="X19" t="s">
-        <v>253</v>
+      <c r="X19" t="n">
+        <v>213321</v>
       </c>
       <c r="Y19" t="n">
         <v>7.55</v>
       </c>
-      <c r="Z19" t="s">
-        <v>254</v>
+      <c r="Z19" t="n">
+        <v>-188985</v>
       </c>
       <c r="AA19" t="n">
         <v>-34.92</v>
       </c>
-      <c r="AB19" t="s">
-        <v>255</v>
+      <c r="AB19" t="n">
+        <v>-63416</v>
       </c>
       <c r="AC19" t="n">
         <v>-7.73</v>
       </c>
-      <c r="AD19" t="s">
-        <v>256</v>
+      <c r="AD19" t="n">
+        <v>148684</v>
       </c>
       <c r="AE19" t="n">
         <v>20.01</v>
       </c>
-      <c r="AF19" t="s">
-        <v>257</v>
+      <c r="AF19" t="n">
+        <v>9806</v>
       </c>
       <c r="AG19" t="n">
         <v>0.31</v>
@@ -3760,100 +2215,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" t="s">
-        <v>259</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12307</v>
       </c>
       <c r="C20" t="n">
         <v>1.66</v>
       </c>
-      <c r="D20" t="s">
-        <v>260</v>
+      <c r="D20" t="n">
+        <v>-554328</v>
       </c>
       <c r="E20" t="n">
         <v>-52.74</v>
       </c>
-      <c r="F20" t="s">
-        <v>261</v>
+      <c r="F20" t="n">
+        <v>1683407</v>
       </c>
       <c r="G20" t="n">
         <v>178</v>
       </c>
-      <c r="H20" t="s">
-        <v>262</v>
+      <c r="H20" t="n">
+        <v>5178956</v>
       </c>
       <c r="I20" t="n">
         <v>121.34</v>
       </c>
-      <c r="J20" t="s">
-        <v>263</v>
+      <c r="J20" t="n">
+        <v>496781</v>
       </c>
       <c r="K20" t="n">
         <v>48.73</v>
       </c>
-      <c r="L20" t="s">
-        <v>264</v>
+      <c r="L20" t="n">
+        <v>-1862791</v>
       </c>
       <c r="M20" t="n">
         <v>-209.29</v>
       </c>
-      <c r="N20" t="s">
-        <v>265</v>
+      <c r="N20" t="n">
+        <v>224196</v>
       </c>
       <c r="O20" t="n">
         <v>24.68</v>
       </c>
-      <c r="P20" t="s">
-        <v>266</v>
+      <c r="P20" t="n">
+        <v>-991492</v>
       </c>
       <c r="Q20" t="n">
         <v>-25.18</v>
       </c>
-      <c r="R20" t="s">
-        <v>267</v>
+      <c r="R20" t="n">
+        <v>-633366</v>
       </c>
       <c r="S20" t="n">
         <v>-94.34</v>
       </c>
-      <c r="T20" t="s">
-        <v>268</v>
+      <c r="T20" t="n">
+        <v>-1145353</v>
       </c>
       <c r="U20" t="n">
         <v>-155.32</v>
       </c>
-      <c r="V20" t="s">
-        <v>269</v>
+      <c r="V20" t="n">
+        <v>-3139708</v>
       </c>
       <c r="W20" t="n">
         <v>-572.08</v>
       </c>
-      <c r="X20" t="s">
-        <v>270</v>
+      <c r="X20" t="n">
+        <v>-4955138</v>
       </c>
       <c r="Y20" t="n">
         <v>-175.31</v>
       </c>
-      <c r="Z20" t="s">
-        <v>271</v>
+      <c r="Z20" t="n">
+        <v>-62013</v>
       </c>
       <c r="AA20" t="n">
         <v>-11.46</v>
       </c>
-      <c r="AB20" t="s">
-        <v>272</v>
+      <c r="AB20" t="n">
+        <v>-549819</v>
       </c>
       <c r="AC20" t="n">
         <v>-67.03</v>
       </c>
-      <c r="AD20" t="s">
-        <v>273</v>
+      <c r="AD20" t="n">
+        <v>2537098</v>
       </c>
       <c r="AE20" t="n">
         <v>341.39</v>
       </c>
-      <c r="AF20" t="s">
-        <v>274</v>
+      <c r="AF20" t="n">
+        <v>1846729</v>
       </c>
       <c r="AG20" t="n">
         <v>58.81</v>
@@ -3861,100 +2316,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B21" t="s">
-        <v>276</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>82329</v>
       </c>
       <c r="C21" t="n">
         <v>11.11</v>
       </c>
-      <c r="D21" t="s">
-        <v>277</v>
+      <c r="D21" t="n">
+        <v>-33186</v>
       </c>
       <c r="E21" t="n">
         <v>-3.16</v>
       </c>
-      <c r="F21" t="s">
-        <v>278</v>
+      <c r="F21" t="n">
+        <v>187936</v>
       </c>
       <c r="G21" t="n">
         <v>19.87</v>
       </c>
-      <c r="H21" t="s">
-        <v>279</v>
+      <c r="H21" t="n">
+        <v>1272068</v>
       </c>
       <c r="I21" t="n">
         <v>29.8</v>
       </c>
-      <c r="J21" t="s">
-        <v>280</v>
+      <c r="J21" t="n">
+        <v>-39384</v>
       </c>
       <c r="K21" t="n">
         <v>-3.86</v>
       </c>
-      <c r="L21" t="s">
-        <v>281</v>
+      <c r="L21" t="n">
+        <v>35662</v>
       </c>
       <c r="M21" t="n">
         <v>4.01</v>
       </c>
-      <c r="N21" t="s">
-        <v>282</v>
+      <c r="N21" t="n">
+        <v>153838</v>
       </c>
       <c r="O21" t="n">
         <v>16.93</v>
       </c>
-      <c r="P21" t="s">
-        <v>283</v>
+      <c r="P21" t="n">
+        <v>16343</v>
       </c>
       <c r="Q21" t="n">
         <v>0.42</v>
       </c>
-      <c r="R21" t="s">
-        <v>284</v>
+      <c r="R21" t="n">
+        <v>-187780</v>
       </c>
       <c r="S21" t="n">
         <v>-27.97</v>
       </c>
-      <c r="T21" t="s">
-        <v>285</v>
+      <c r="T21" t="n">
+        <v>108282</v>
       </c>
       <c r="U21" t="n">
         <v>14.68</v>
       </c>
-      <c r="V21" t="s">
-        <v>286</v>
+      <c r="V21" t="n">
+        <v>-321700</v>
       </c>
       <c r="W21" t="n">
         <v>-58.62</v>
       </c>
-      <c r="X21" t="s">
-        <v>287</v>
+      <c r="X21" t="n">
+        <v>221518</v>
       </c>
       <c r="Y21" t="n">
         <v>7.84</v>
       </c>
-      <c r="Z21" t="s">
-        <v>288</v>
+      <c r="Z21" t="n">
+        <v>-188620</v>
       </c>
       <c r="AA21" t="n">
         <v>-34.85</v>
       </c>
-      <c r="AB21" t="s">
-        <v>289</v>
+      <c r="AB21" t="n">
+        <v>-66391</v>
       </c>
       <c r="AC21" t="n">
         <v>-8.09</v>
       </c>
-      <c r="AD21" t="s">
-        <v>290</v>
+      <c r="AD21" t="n">
+        <v>135471</v>
       </c>
       <c r="AE21" t="n">
         <v>18.23</v>
       </c>
-      <c r="AF21" t="s">
-        <v>291</v>
+      <c r="AF21" t="n">
+        <v>24889</v>
       </c>
       <c r="AG21" t="n">
         <v>0.79</v>
@@ -3962,100 +2417,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B22" t="s">
-        <v>293</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>28882</v>
       </c>
       <c r="C22" t="n">
         <v>3.9</v>
       </c>
-      <c r="D22" t="s">
-        <v>294</v>
+      <c r="D22" t="n">
+        <v>-537402</v>
       </c>
       <c r="E22" t="n">
         <v>-51.13</v>
       </c>
-      <c r="F22" t="s">
-        <v>295</v>
+      <c r="F22" t="n">
+        <v>1637719</v>
       </c>
       <c r="G22" t="n">
         <v>173.17</v>
       </c>
-      <c r="H22" t="s">
-        <v>296</v>
+      <c r="H22" t="n">
+        <v>4994028</v>
       </c>
       <c r="I22" t="n">
         <v>117</v>
       </c>
-      <c r="J22" t="s">
-        <v>297</v>
+      <c r="J22" t="n">
+        <v>469716</v>
       </c>
       <c r="K22" t="n">
         <v>46.08</v>
       </c>
-      <c r="L22" t="s">
-        <v>298</v>
+      <c r="L22" t="n">
+        <v>-1806340</v>
       </c>
       <c r="M22" t="n">
         <v>-202.94</v>
       </c>
-      <c r="N22" t="s">
-        <v>299</v>
+      <c r="N22" t="n">
+        <v>195830</v>
       </c>
       <c r="O22" t="n">
         <v>21.56</v>
       </c>
-      <c r="P22" t="s">
-        <v>300</v>
+      <c r="P22" t="n">
+        <v>-988148</v>
       </c>
       <c r="Q22" t="n">
         <v>-25.09</v>
       </c>
-      <c r="R22" t="s">
-        <v>301</v>
+      <c r="R22" t="n">
+        <v>-622310</v>
       </c>
       <c r="S22" t="n">
         <v>-92.69</v>
       </c>
-      <c r="T22" t="s">
-        <v>302</v>
+      <c r="T22" t="n">
+        <v>-1101107</v>
       </c>
       <c r="U22" t="n">
         <v>-149.32</v>
       </c>
-      <c r="V22" t="s">
-        <v>303</v>
+      <c r="V22" t="n">
+        <v>-3044874</v>
       </c>
       <c r="W22" t="n">
         <v>-554.8</v>
       </c>
-      <c r="X22" t="s">
-        <v>304</v>
+      <c r="X22" t="n">
+        <v>-4760135</v>
       </c>
       <c r="Y22" t="n">
         <v>-168.41</v>
       </c>
-      <c r="Z22" t="s">
-        <v>305</v>
+      <c r="Z22" t="n">
+        <v>-66938</v>
       </c>
       <c r="AA22" t="n">
         <v>-12.37</v>
       </c>
-      <c r="AB22" t="s">
-        <v>306</v>
+      <c r="AB22" t="n">
+        <v>-536685</v>
       </c>
       <c r="AC22" t="n">
         <v>-65.43000000000001</v>
       </c>
-      <c r="AD22" t="s">
-        <v>307</v>
+      <c r="AD22" t="n">
+        <v>2439082</v>
       </c>
       <c r="AE22" t="n">
         <v>328.2</v>
       </c>
-      <c r="AF22" t="s">
-        <v>308</v>
+      <c r="AF22" t="n">
+        <v>1793477</v>
       </c>
       <c r="AG22" t="n">
         <v>57.11</v>
@@ -4063,7 +2518,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
@@ -4071,56 +2526,56 @@
       <c r="E23" t="s"/>
       <c r="F23" t="s"/>
       <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>310</v>
+      <c r="H23" t="n">
+        <v>133100</v>
       </c>
       <c r="I23" t="n">
         <v>3.12</v>
       </c>
-      <c r="J23" t="s">
-        <v>311</v>
+      <c r="J23" t="n">
+        <v>13003</v>
       </c>
       <c r="K23" t="n">
         <v>1.28</v>
       </c>
-      <c r="L23" t="s">
-        <v>85</v>
+      <c r="L23" t="n">
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="N23" t="s">
-        <v>85</v>
+      <c r="N23" t="n">
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
-        <v>311</v>
+      <c r="P23" t="n">
+        <v>13003</v>
       </c>
       <c r="Q23" t="n">
         <v>0.33</v>
       </c>
-      <c r="R23" t="s">
-        <v>85</v>
+      <c r="R23" t="n">
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
-      <c r="T23" t="s">
-        <v>85</v>
+      <c r="T23" t="n">
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
-      <c r="V23" t="s">
-        <v>85</v>
+      <c r="V23" t="n">
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
-      <c r="X23" t="s">
-        <v>85</v>
+      <c r="X23" t="n">
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -4131,8 +2586,8 @@
       <c r="AC23" t="s"/>
       <c r="AD23" t="s"/>
       <c r="AE23" t="s"/>
-      <c r="AF23" t="s">
-        <v>312</v>
+      <c r="AF23" t="n">
+        <v>61208</v>
       </c>
       <c r="AG23" t="n">
         <v>1.95</v>
@@ -4140,7 +2595,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>313</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -4148,56 +2603,56 @@
       <c r="E24" t="s"/>
       <c r="F24" t="s"/>
       <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>314</v>
+      <c r="H24" t="n">
+        <v>218346</v>
       </c>
       <c r="I24" t="n">
         <v>5.12</v>
       </c>
-      <c r="J24" t="s">
-        <v>315</v>
+      <c r="J24" t="n">
+        <v>21636</v>
       </c>
       <c r="K24" t="n">
         <v>2.12</v>
       </c>
-      <c r="L24" t="s">
-        <v>85</v>
+      <c r="L24" t="n">
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="N24" t="s">
-        <v>85</v>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="s">
-        <v>315</v>
+      <c r="P24" t="n">
+        <v>21636</v>
       </c>
       <c r="Q24" t="n">
         <v>0.55</v>
       </c>
-      <c r="R24" t="s">
-        <v>85</v>
+      <c r="R24" t="n">
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
-      <c r="T24" t="s">
-        <v>85</v>
+      <c r="T24" t="n">
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
-      <c r="V24" t="s">
-        <v>85</v>
+      <c r="V24" t="n">
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
-      <c r="X24" t="s">
-        <v>85</v>
+      <c r="X24" t="n">
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -4208,8 +2663,8 @@
       <c r="AC24" t="s"/>
       <c r="AD24" t="s"/>
       <c r="AE24" t="s"/>
-      <c r="AF24" t="s">
-        <v>316</v>
+      <c r="AF24" t="n">
+        <v>15838</v>
       </c>
       <c r="AG24" t="n">
         <v>0.5</v>
@@ -4217,100 +2672,100 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B25" t="s">
-        <v>318</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-149811</v>
       </c>
       <c r="C25" t="n">
         <v>-20.21</v>
       </c>
-      <c r="D25" t="s">
-        <v>319</v>
+      <c r="D25" t="n">
+        <v>-79501</v>
       </c>
       <c r="E25" t="n">
         <v>-7.56</v>
       </c>
-      <c r="F25" t="s">
-        <v>320</v>
+      <c r="F25" t="n">
+        <v>-119874</v>
       </c>
       <c r="G25" t="n">
         <v>-12.68</v>
       </c>
-      <c r="H25" t="s">
-        <v>321</v>
+      <c r="H25" t="n">
+        <v>416023</v>
       </c>
       <c r="I25" t="n">
         <v>9.75</v>
       </c>
-      <c r="J25" t="s">
-        <v>322</v>
+      <c r="J25" t="n">
+        <v>-42587</v>
       </c>
       <c r="K25" t="n">
         <v>-4.18</v>
       </c>
-      <c r="L25" t="s">
-        <v>323</v>
+      <c r="L25" t="n">
+        <v>-73359</v>
       </c>
       <c r="M25" t="n">
         <v>-8.24</v>
       </c>
-      <c r="N25" t="s">
-        <v>324</v>
+      <c r="N25" t="n">
+        <v>-91135</v>
       </c>
       <c r="O25" t="n">
         <v>-10.03</v>
       </c>
-      <c r="P25" t="s">
-        <v>325</v>
+      <c r="P25" t="n">
+        <v>-258849</v>
       </c>
       <c r="Q25" t="n">
         <v>-6.57</v>
       </c>
-      <c r="R25" t="s">
-        <v>326</v>
+      <c r="R25" t="n">
+        <v>-185767</v>
       </c>
       <c r="S25" t="n">
         <v>-27.67</v>
       </c>
-      <c r="T25" t="s">
-        <v>327</v>
+      <c r="T25" t="n">
+        <v>-68386</v>
       </c>
       <c r="U25" t="n">
         <v>-9.27</v>
       </c>
-      <c r="V25" t="s">
-        <v>328</v>
+      <c r="V25" t="n">
+        <v>-146664</v>
       </c>
       <c r="W25" t="n">
         <v>-26.72</v>
       </c>
-      <c r="X25" t="s">
-        <v>329</v>
+      <c r="X25" t="n">
+        <v>408964</v>
       </c>
       <c r="Y25" t="n">
         <v>14.47</v>
       </c>
-      <c r="Z25" t="s">
-        <v>330</v>
+      <c r="Z25" t="n">
+        <v>-91274</v>
       </c>
       <c r="AA25" t="n">
         <v>-16.86</v>
       </c>
-      <c r="AB25" t="s">
-        <v>331</v>
+      <c r="AB25" t="n">
+        <v>-60846</v>
       </c>
       <c r="AC25" t="n">
         <v>-7.42</v>
       </c>
-      <c r="AD25" t="s">
-        <v>332</v>
+      <c r="AD25" t="n">
+        <v>-42935</v>
       </c>
       <c r="AE25" t="n">
         <v>-5.78</v>
       </c>
-      <c r="AF25" t="s">
-        <v>333</v>
+      <c r="AF25" t="n">
+        <v>-457478</v>
       </c>
       <c r="AG25" t="n">
         <v>-14.57</v>
@@ -4318,100 +2773,100 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B26" t="s">
-        <v>335</v>
+        <v>56</v>
+      </c>
+      <c r="B26" t="n">
+        <v>183613</v>
       </c>
       <c r="C26" t="n">
         <v>24.77</v>
       </c>
-      <c r="D26" t="s">
-        <v>336</v>
+      <c r="D26" t="n">
+        <v>31096</v>
       </c>
       <c r="E26" t="n">
         <v>2.96</v>
       </c>
-      <c r="F26" t="s">
-        <v>337</v>
+      <c r="F26" t="n">
+        <v>321601</v>
       </c>
       <c r="G26" t="n">
         <v>34.01</v>
       </c>
-      <c r="H26" t="s">
-        <v>338</v>
+      <c r="H26" t="n">
+        <v>922781</v>
       </c>
       <c r="I26" t="n">
         <v>21.62</v>
       </c>
-      <c r="J26" t="s">
-        <v>339</v>
+      <c r="J26" t="n">
+        <v>798</v>
       </c>
       <c r="K26" t="n">
         <v>0.08</v>
       </c>
-      <c r="L26" t="s">
-        <v>340</v>
+      <c r="L26" t="n">
+        <v>145667</v>
       </c>
       <c r="M26" t="n">
         <v>16.37</v>
       </c>
-      <c r="N26" t="s">
-        <v>341</v>
+      <c r="N26" t="n">
+        <v>283547</v>
       </c>
       <c r="O26" t="n">
         <v>31.21</v>
       </c>
-      <c r="P26" t="s">
-        <v>342</v>
+      <c r="P26" t="n">
+        <v>268150</v>
       </c>
       <c r="Q26" t="n">
         <v>6.81</v>
       </c>
-      <c r="R26" t="s">
-        <v>343</v>
+      <c r="R26" t="n">
+        <v>-23780</v>
       </c>
       <c r="S26" t="n">
         <v>-3.54</v>
       </c>
-      <c r="T26" t="s">
-        <v>344</v>
+      <c r="T26" t="n">
+        <v>268324</v>
       </c>
       <c r="U26" t="n">
         <v>36.39</v>
       </c>
-      <c r="V26" t="s">
-        <v>345</v>
+      <c r="V26" t="n">
+        <v>-213522</v>
       </c>
       <c r="W26" t="n">
         <v>-38.91</v>
       </c>
-      <c r="X26" t="s">
-        <v>346</v>
+      <c r="X26" t="n">
+        <v>-214064</v>
       </c>
       <c r="Y26" t="n">
         <v>-7.57</v>
       </c>
-      <c r="Z26" t="s">
-        <v>347</v>
+      <c r="Z26" t="n">
+        <v>-100254</v>
       </c>
       <c r="AA26" t="n">
         <v>-18.52</v>
       </c>
-      <c r="AB26" t="s">
-        <v>348</v>
+      <c r="AB26" t="n">
+        <v>17505</v>
       </c>
       <c r="AC26" t="n">
         <v>2.13</v>
       </c>
-      <c r="AD26" t="s">
-        <v>349</v>
+      <c r="AD26" t="n">
+        <v>206583</v>
       </c>
       <c r="AE26" t="n">
         <v>27.8</v>
       </c>
-      <c r="AF26" t="s">
-        <v>350</v>
+      <c r="AF26" t="n">
+        <v>536639</v>
       </c>
       <c r="AG26" t="n">
         <v>17.09</v>
@@ -4419,100 +2874,100 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B27" t="s">
-        <v>352</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>786094</v>
       </c>
       <c r="C27" t="n">
         <v>106.06</v>
       </c>
-      <c r="D27" t="s">
-        <v>353</v>
+      <c r="D27" t="n">
+        <v>1034363</v>
       </c>
       <c r="E27" t="n">
         <v>98.40000000000001</v>
       </c>
-      <c r="F27" t="s">
-        <v>354</v>
+      <c r="F27" t="n">
+        <v>956710</v>
       </c>
       <c r="G27" t="n">
         <v>101.16</v>
       </c>
-      <c r="H27" t="s">
-        <v>355</v>
+      <c r="H27" t="n">
+        <v>4033360</v>
       </c>
       <c r="I27" t="n">
         <v>94.5</v>
       </c>
-      <c r="J27" t="s">
-        <v>356</v>
+      <c r="J27" t="n">
+        <v>961066</v>
       </c>
       <c r="K27" t="n">
         <v>94.27</v>
       </c>
-      <c r="L27" t="s">
-        <v>357</v>
+      <c r="L27" t="n">
+        <v>816776</v>
       </c>
       <c r="M27" t="n">
         <v>91.77</v>
       </c>
-      <c r="N27" t="s">
-        <v>358</v>
+      <c r="N27" t="n">
+        <v>886856</v>
       </c>
       <c r="O27" t="n">
         <v>97.62</v>
       </c>
-      <c r="P27" t="s">
-        <v>359</v>
+      <c r="P27" t="n">
+        <v>3718300</v>
       </c>
       <c r="Q27" t="n">
         <v>94.43000000000001</v>
       </c>
-      <c r="R27" t="s">
-        <v>360</v>
+      <c r="R27" t="n">
+        <v>747020</v>
       </c>
       <c r="S27" t="n">
         <v>111.27</v>
       </c>
-      <c r="T27" t="s">
-        <v>361</v>
+      <c r="T27" t="n">
+        <v>745119</v>
       </c>
       <c r="U27" t="n">
         <v>101.04</v>
       </c>
-      <c r="V27" t="s">
-        <v>362</v>
+      <c r="V27" t="n">
+        <v>596649</v>
       </c>
       <c r="W27" t="n">
         <v>108.71</v>
       </c>
-      <c r="X27" t="s">
-        <v>363</v>
+      <c r="X27" t="n">
+        <v>2934267</v>
       </c>
       <c r="Y27" t="n">
         <v>103.81</v>
       </c>
-      <c r="Z27" t="s">
-        <v>364</v>
+      <c r="Z27" t="n">
+        <v>544548</v>
       </c>
       <c r="AA27" t="n">
         <v>100.62</v>
       </c>
-      <c r="AB27" t="s">
-        <v>365</v>
+      <c r="AB27" t="n">
+        <v>792964</v>
       </c>
       <c r="AC27" t="n">
         <v>96.67</v>
       </c>
-      <c r="AD27" t="s">
-        <v>366</v>
+      <c r="AD27" t="n">
+        <v>706027</v>
       </c>
       <c r="AE27" t="n">
         <v>95</v>
       </c>
-      <c r="AF27" t="s">
-        <v>367</v>
+      <c r="AF27" t="n">
+        <v>3044769</v>
       </c>
       <c r="AG27" t="n">
         <v>96.95999999999999</v>
@@ -4520,100 +2975,100 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B28" t="s">
-        <v>369</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>741189</v>
       </c>
       <c r="C28" t="n">
         <v>100</v>
       </c>
-      <c r="D28" t="s">
-        <v>370</v>
+      <c r="D28" t="n">
+        <v>1051146</v>
       </c>
       <c r="E28" t="n">
         <v>100</v>
       </c>
-      <c r="F28" t="s">
-        <v>371</v>
+      <c r="F28" t="n">
+        <v>945725</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
       </c>
-      <c r="H28" t="s">
-        <v>372</v>
+      <c r="H28" t="n">
+        <v>4268305</v>
       </c>
       <c r="I28" t="n">
         <v>100</v>
       </c>
-      <c r="J28" t="s">
-        <v>373</v>
+      <c r="J28" t="n">
+        <v>1019429</v>
       </c>
       <c r="K28" t="n">
         <v>100</v>
       </c>
-      <c r="L28" t="s">
-        <v>374</v>
+      <c r="L28" t="n">
+        <v>890073</v>
       </c>
       <c r="M28" t="n">
         <v>100</v>
       </c>
-      <c r="N28" t="s">
-        <v>375</v>
+      <c r="N28" t="n">
+        <v>908502</v>
       </c>
       <c r="O28" t="n">
         <v>100</v>
       </c>
-      <c r="P28" t="s">
-        <v>376</v>
+      <c r="P28" t="n">
+        <v>3937686</v>
       </c>
       <c r="Q28" t="n">
         <v>100</v>
       </c>
-      <c r="R28" t="s">
-        <v>377</v>
+      <c r="R28" t="n">
+        <v>671355</v>
       </c>
       <c r="S28" t="n">
         <v>100</v>
       </c>
-      <c r="T28" t="s">
-        <v>378</v>
+      <c r="T28" t="n">
+        <v>737435</v>
       </c>
       <c r="U28" t="n">
         <v>100</v>
       </c>
-      <c r="V28" t="s">
-        <v>379</v>
+      <c r="V28" t="n">
+        <v>548822</v>
       </c>
       <c r="W28" t="n">
         <v>100</v>
       </c>
-      <c r="X28" t="s">
-        <v>380</v>
+      <c r="X28" t="n">
+        <v>2826519</v>
       </c>
       <c r="Y28" t="n">
         <v>100</v>
       </c>
-      <c r="Z28" t="s">
-        <v>381</v>
+      <c r="Z28" t="n">
+        <v>541218</v>
       </c>
       <c r="AA28" t="n">
         <v>100</v>
       </c>
-      <c r="AB28" t="s">
-        <v>382</v>
+      <c r="AB28" t="n">
+        <v>820256</v>
       </c>
       <c r="AC28" t="n">
         <v>100</v>
       </c>
-      <c r="AD28" t="s">
-        <v>383</v>
+      <c r="AD28" t="n">
+        <v>743175</v>
       </c>
       <c r="AE28" t="n">
         <v>100</v>
       </c>
-      <c r="AF28" t="s">
-        <v>384</v>
+      <c r="AF28" t="n">
+        <v>3140190</v>
       </c>
       <c r="AG28" t="n">
         <v>100</v>
@@ -4621,100 +3076,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B29" t="s">
-        <v>386</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-44905</v>
       </c>
       <c r="C29" t="n">
         <v>-6.06</v>
       </c>
-      <c r="D29" t="s">
-        <v>387</v>
+      <c r="D29" t="n">
+        <v>16783</v>
       </c>
       <c r="E29" t="n">
         <v>1.6</v>
       </c>
-      <c r="F29" t="s">
-        <v>388</v>
+      <c r="F29" t="n">
+        <v>-10985</v>
       </c>
       <c r="G29" t="n">
         <v>-1.16</v>
       </c>
-      <c r="H29" t="s">
-        <v>389</v>
+      <c r="H29" t="n">
+        <v>234945</v>
       </c>
       <c r="I29" t="n">
         <v>5.5</v>
       </c>
-      <c r="J29" t="s">
-        <v>390</v>
+      <c r="J29" t="n">
+        <v>58363</v>
       </c>
       <c r="K29" t="n">
         <v>5.73</v>
       </c>
-      <c r="L29" t="s">
-        <v>391</v>
+      <c r="L29" t="n">
+        <v>73297</v>
       </c>
       <c r="M29" t="n">
         <v>8.23</v>
       </c>
-      <c r="N29" t="s">
-        <v>392</v>
+      <c r="N29" t="n">
+        <v>21646</v>
       </c>
       <c r="O29" t="n">
         <v>2.38</v>
       </c>
-      <c r="P29" t="s">
-        <v>393</v>
+      <c r="P29" t="n">
+        <v>219386</v>
       </c>
       <c r="Q29" t="n">
         <v>5.57</v>
       </c>
-      <c r="R29" t="s">
-        <v>394</v>
+      <c r="R29" t="n">
+        <v>-75665</v>
       </c>
       <c r="S29" t="n">
         <v>-11.27</v>
       </c>
-      <c r="T29" t="s">
-        <v>395</v>
+      <c r="T29" t="n">
+        <v>-7684</v>
       </c>
       <c r="U29" t="n">
         <v>-1.04</v>
       </c>
-      <c r="V29" t="s">
-        <v>396</v>
+      <c r="V29" t="n">
+        <v>-47827</v>
       </c>
       <c r="W29" t="n">
         <v>-8.710000000000001</v>
       </c>
-      <c r="X29" t="s">
-        <v>397</v>
+      <c r="X29" t="n">
+        <v>-107748</v>
       </c>
       <c r="Y29" t="n">
         <v>-3.81</v>
       </c>
-      <c r="Z29" t="s">
-        <v>398</v>
+      <c r="Z29" t="n">
+        <v>-3330</v>
       </c>
       <c r="AA29" t="n">
         <v>-0.62</v>
       </c>
-      <c r="AB29" t="s">
-        <v>399</v>
+      <c r="AB29" t="n">
+        <v>27292</v>
       </c>
       <c r="AC29" t="n">
         <v>3.33</v>
       </c>
-      <c r="AD29" t="s">
-        <v>400</v>
+      <c r="AD29" t="n">
+        <v>37148</v>
       </c>
       <c r="AE29" t="n">
         <v>5</v>
       </c>
-      <c r="AF29" t="s">
-        <v>401</v>
+      <c r="AF29" t="n">
+        <v>95421</v>
       </c>
       <c r="AG29" t="n">
         <v>3.04</v>
@@ -4722,100 +3177,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B30" t="s">
-        <v>386</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-44905</v>
       </c>
       <c r="C30" t="n">
         <v>-6.06</v>
       </c>
-      <c r="D30" t="s">
-        <v>387</v>
+      <c r="D30" t="n">
+        <v>16783</v>
       </c>
       <c r="E30" t="n">
         <v>1.6</v>
       </c>
-      <c r="F30" t="s">
-        <v>388</v>
+      <c r="F30" t="n">
+        <v>-10985</v>
       </c>
       <c r="G30" t="n">
         <v>-1.16</v>
       </c>
-      <c r="H30" t="s">
-        <v>389</v>
+      <c r="H30" t="n">
+        <v>234945</v>
       </c>
       <c r="I30" t="n">
         <v>5.5</v>
       </c>
-      <c r="J30" t="s">
-        <v>390</v>
+      <c r="J30" t="n">
+        <v>58363</v>
       </c>
       <c r="K30" t="n">
         <v>5.73</v>
       </c>
-      <c r="L30" t="s">
-        <v>391</v>
+      <c r="L30" t="n">
+        <v>73297</v>
       </c>
       <c r="M30" t="n">
         <v>8.23</v>
       </c>
-      <c r="N30" t="s">
-        <v>392</v>
+      <c r="N30" t="n">
+        <v>21646</v>
       </c>
       <c r="O30" t="n">
         <v>2.38</v>
       </c>
-      <c r="P30" t="s">
-        <v>393</v>
+      <c r="P30" t="n">
+        <v>219386</v>
       </c>
       <c r="Q30" t="n">
         <v>5.57</v>
       </c>
-      <c r="R30" t="s">
-        <v>394</v>
+      <c r="R30" t="n">
+        <v>-75665</v>
       </c>
       <c r="S30" t="n">
         <v>-11.27</v>
       </c>
-      <c r="T30" t="s">
-        <v>395</v>
+      <c r="T30" t="n">
+        <v>-7684</v>
       </c>
       <c r="U30" t="n">
         <v>-1.04</v>
       </c>
-      <c r="V30" t="s">
-        <v>396</v>
+      <c r="V30" t="n">
+        <v>-47827</v>
       </c>
       <c r="W30" t="n">
         <v>-8.710000000000001</v>
       </c>
-      <c r="X30" t="s">
-        <v>397</v>
+      <c r="X30" t="n">
+        <v>-107748</v>
       </c>
       <c r="Y30" t="n">
         <v>-3.81</v>
       </c>
-      <c r="Z30" t="s">
-        <v>398</v>
+      <c r="Z30" t="n">
+        <v>-3330</v>
       </c>
       <c r="AA30" t="n">
         <v>-0.62</v>
       </c>
-      <c r="AB30" t="s">
-        <v>399</v>
+      <c r="AB30" t="n">
+        <v>27292</v>
       </c>
       <c r="AC30" t="n">
         <v>3.33</v>
       </c>
-      <c r="AD30" t="s">
-        <v>400</v>
+      <c r="AD30" t="n">
+        <v>37148</v>
       </c>
       <c r="AE30" t="n">
         <v>5</v>
       </c>
-      <c r="AF30" t="s">
-        <v>401</v>
+      <c r="AF30" t="n">
+        <v>95421</v>
       </c>
       <c r="AG30" t="n">
         <v>3.04</v>
@@ -4823,100 +3278,100 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B31" t="s">
-        <v>404</v>
+        <v>61</v>
+      </c>
+      <c r="B31" t="n">
+        <v>104906</v>
       </c>
       <c r="C31" t="n">
         <v>14.15</v>
       </c>
-      <c r="D31" t="s">
-        <v>405</v>
+      <c r="D31" t="n">
+        <v>96284</v>
       </c>
       <c r="E31" t="n">
         <v>9.16</v>
       </c>
-      <c r="F31" t="s">
-        <v>406</v>
+      <c r="F31" t="n">
+        <v>108889</v>
       </c>
       <c r="G31" t="n">
         <v>11.51</v>
       </c>
-      <c r="H31" t="s">
-        <v>407</v>
+      <c r="H31" t="n">
+        <v>473491</v>
       </c>
       <c r="I31" t="n">
         <v>11.09</v>
       </c>
-      <c r="J31" t="s">
-        <v>408</v>
+      <c r="J31" t="n">
+        <v>100950</v>
       </c>
       <c r="K31" t="n">
         <v>9.9</v>
       </c>
-      <c r="L31" t="s">
-        <v>409</v>
+      <c r="L31" t="n">
+        <v>146656</v>
       </c>
       <c r="M31" t="n">
         <v>16.48</v>
       </c>
-      <c r="N31" t="s">
-        <v>410</v>
+      <c r="N31" t="n">
+        <v>112781</v>
       </c>
       <c r="O31" t="n">
         <v>12.41</v>
       </c>
-      <c r="P31" t="s">
-        <v>411</v>
+      <c r="P31" t="n">
+        <v>478235</v>
       </c>
       <c r="Q31" t="n">
         <v>12.15</v>
       </c>
-      <c r="R31" t="s">
-        <v>412</v>
+      <c r="R31" t="n">
+        <v>110102</v>
       </c>
       <c r="S31" t="n">
         <v>16.4</v>
       </c>
-      <c r="T31" t="s">
-        <v>413</v>
+      <c r="T31" t="n">
+        <v>100609</v>
       </c>
       <c r="U31" t="n">
         <v>13.64</v>
       </c>
-      <c r="V31" t="s">
-        <v>414</v>
+      <c r="V31" t="n">
+        <v>104911</v>
       </c>
       <c r="W31" t="n">
         <v>19.12</v>
       </c>
-      <c r="X31" t="s">
-        <v>415</v>
+      <c r="X31" t="n">
+        <v>463763</v>
       </c>
       <c r="Y31" t="n">
         <v>16.41</v>
       </c>
-      <c r="Z31" t="s">
-        <v>416</v>
+      <c r="Z31" t="n">
+        <v>87944</v>
       </c>
       <c r="AA31" t="n">
         <v>16.25</v>
       </c>
-      <c r="AB31" t="s">
-        <v>417</v>
+      <c r="AB31" t="n">
+        <v>88138</v>
       </c>
       <c r="AC31" t="n">
         <v>10.75</v>
       </c>
-      <c r="AD31" t="s">
-        <v>418</v>
+      <c r="AD31" t="n">
+        <v>80083</v>
       </c>
       <c r="AE31" t="n">
         <v>10.78</v>
       </c>
-      <c r="AF31" t="s">
-        <v>419</v>
+      <c r="AF31" t="n">
+        <v>552899</v>
       </c>
       <c r="AG31" t="n">
         <v>17.61</v>
@@ -4924,7 +3379,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>420</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
@@ -4932,8 +3387,8 @@
       <c r="E32" t="s"/>
       <c r="F32" t="s"/>
       <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>421</v>
+      <c r="H32" t="n">
+        <v>5605</v>
       </c>
       <c r="I32" t="n">
         <v>0.13</v>
@@ -4944,8 +3399,8 @@
       <c r="M32" t="s"/>
       <c r="N32" t="s"/>
       <c r="O32" t="s"/>
-      <c r="P32" t="s">
-        <v>422</v>
+      <c r="P32" t="n">
+        <v>-8191</v>
       </c>
       <c r="Q32" t="n">
         <v>-0.21</v>
@@ -4956,8 +3411,8 @@
       <c r="U32" t="s"/>
       <c r="V32" t="s"/>
       <c r="W32" t="s"/>
-      <c r="X32" t="s">
-        <v>423</v>
+      <c r="X32" t="n">
+        <v>-7145</v>
       </c>
       <c r="Y32" t="n">
         <v>-0.25</v>
@@ -4968,8 +3423,8 @@
       <c r="AC32" t="s"/>
       <c r="AD32" t="s"/>
       <c r="AE32" t="s"/>
-      <c r="AF32" t="s">
-        <v>424</v>
+      <c r="AF32" t="n">
+        <v>17525</v>
       </c>
       <c r="AG32" t="n">
         <v>0.5600000000000001</v>
@@ -4977,100 +3432,100 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B33" t="s">
-        <v>426</v>
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>47862</v>
       </c>
       <c r="C33" t="n">
         <v>6.46</v>
       </c>
-      <c r="D33" t="s">
-        <v>427</v>
+      <c r="D33" t="n">
+        <v>52611</v>
       </c>
       <c r="E33" t="n">
         <v>5.01</v>
       </c>
-      <c r="F33" t="s">
-        <v>428</v>
+      <c r="F33" t="n">
+        <v>65919</v>
       </c>
       <c r="G33" t="n">
         <v>6.97</v>
       </c>
-      <c r="H33" t="s">
-        <v>429</v>
+      <c r="H33" t="n">
+        <v>204637</v>
       </c>
       <c r="I33" t="n">
         <v>4.79</v>
       </c>
-      <c r="J33" t="s">
-        <v>430</v>
+      <c r="J33" t="n">
+        <v>51588</v>
       </c>
       <c r="K33" t="n">
         <v>5.06</v>
       </c>
-      <c r="L33" t="s">
-        <v>431</v>
+      <c r="L33" t="n">
+        <v>53373</v>
       </c>
       <c r="M33" t="n">
         <v>6</v>
       </c>
-      <c r="N33" t="s">
-        <v>432</v>
+      <c r="N33" t="n">
+        <v>53188</v>
       </c>
       <c r="O33" t="n">
         <v>5.85</v>
       </c>
-      <c r="P33" t="s">
-        <v>433</v>
+      <c r="P33" t="n">
+        <v>212599</v>
       </c>
       <c r="Q33" t="n">
         <v>5.4</v>
       </c>
-      <c r="R33" t="s">
-        <v>434</v>
+      <c r="R33" t="n">
+        <v>51743</v>
       </c>
       <c r="S33" t="n">
         <v>7.71</v>
       </c>
-      <c r="T33" t="s">
-        <v>435</v>
+      <c r="T33" t="n">
+        <v>54640</v>
       </c>
       <c r="U33" t="n">
         <v>7.41</v>
       </c>
-      <c r="V33" t="s">
-        <v>436</v>
+      <c r="V33" t="n">
+        <v>55709</v>
       </c>
       <c r="W33" t="n">
         <v>10.15</v>
       </c>
-      <c r="X33" t="s">
-        <v>393</v>
+      <c r="X33" t="n">
+        <v>219386</v>
       </c>
       <c r="Y33" t="n">
         <v>7.76</v>
       </c>
-      <c r="Z33" t="s">
-        <v>437</v>
+      <c r="Z33" t="n">
+        <v>51879</v>
       </c>
       <c r="AA33" t="n">
         <v>9.59</v>
       </c>
-      <c r="AB33" t="s">
-        <v>438</v>
+      <c r="AB33" t="n">
+        <v>54870</v>
       </c>
       <c r="AC33" t="n">
         <v>6.69</v>
       </c>
-      <c r="AD33" t="s">
-        <v>439</v>
+      <c r="AD33" t="n">
+        <v>53910</v>
       </c>
       <c r="AE33" t="n">
         <v>7.25</v>
       </c>
-      <c r="AF33" t="s">
-        <v>440</v>
+      <c r="AF33" t="n">
+        <v>227437</v>
       </c>
       <c r="AG33" t="n">
         <v>7.24</v>
@@ -5078,100 +3533,100 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B34" t="s">
-        <v>442</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>91595</v>
       </c>
       <c r="C34" t="n">
         <v>12.36</v>
       </c>
-      <c r="D34" t="s">
-        <v>443</v>
+      <c r="D34" t="n">
+        <v>95089</v>
       </c>
       <c r="E34" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="F34" t="s">
-        <v>444</v>
+      <c r="F34" t="n">
+        <v>99114</v>
       </c>
       <c r="G34" t="n">
         <v>10.48</v>
       </c>
-      <c r="H34" t="s">
-        <v>445</v>
+      <c r="H34" t="n">
+        <v>355357</v>
       </c>
       <c r="I34" t="n">
         <v>8.33</v>
       </c>
-      <c r="J34" t="s">
-        <v>446</v>
+      <c r="J34" t="n">
+        <v>92300</v>
       </c>
       <c r="K34" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="L34" t="s">
-        <v>447</v>
+      <c r="L34" t="n">
+        <v>94354</v>
       </c>
       <c r="M34" t="n">
         <v>10.6</v>
       </c>
-      <c r="N34" t="s">
-        <v>448</v>
+      <c r="N34" t="n">
+        <v>103624</v>
       </c>
       <c r="O34" t="n">
         <v>11.41</v>
       </c>
-      <c r="P34" t="s">
-        <v>449</v>
+      <c r="P34" t="n">
+        <v>397504</v>
       </c>
       <c r="Q34" t="n">
         <v>10.09</v>
       </c>
-      <c r="R34" t="s">
-        <v>450</v>
+      <c r="R34" t="n">
+        <v>109133</v>
       </c>
       <c r="S34" t="n">
         <v>16.26</v>
       </c>
-      <c r="T34" t="s">
-        <v>451</v>
+      <c r="T34" t="n">
+        <v>110376</v>
       </c>
       <c r="U34" t="n">
         <v>14.97</v>
       </c>
-      <c r="V34" t="s">
-        <v>452</v>
+      <c r="V34" t="n">
+        <v>108986</v>
       </c>
       <c r="W34" t="n">
         <v>19.86</v>
       </c>
-      <c r="X34" t="s">
-        <v>453</v>
+      <c r="X34" t="n">
+        <v>438940</v>
       </c>
       <c r="Y34" t="n">
         <v>15.53</v>
       </c>
-      <c r="Z34" t="s">
-        <v>454</v>
+      <c r="Z34" t="n">
+        <v>109334</v>
       </c>
       <c r="AA34" t="n">
         <v>20.2</v>
       </c>
-      <c r="AB34" t="s">
-        <v>455</v>
+      <c r="AB34" t="n">
+        <v>111396</v>
       </c>
       <c r="AC34" t="n">
         <v>13.58</v>
       </c>
-      <c r="AD34" t="s">
-        <v>456</v>
+      <c r="AD34" t="n">
+        <v>114444</v>
       </c>
       <c r="AE34" t="n">
         <v>15.4</v>
       </c>
-      <c r="AF34" t="s">
-        <v>457</v>
+      <c r="AF34" t="n">
+        <v>450675</v>
       </c>
       <c r="AG34" t="n">
         <v>14.35</v>
@@ -5179,169 +3634,169 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B35" t="s">
-        <v>169</v>
+        <v>65</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.13</v>
       </c>
       <c r="C35" t="s"/>
-      <c r="D35" t="s">
-        <v>170</v>
+      <c r="D35" t="n">
+        <v>-0.05</v>
       </c>
       <c r="E35" t="s"/>
-      <c r="F35" t="s">
-        <v>171</v>
+      <c r="F35" t="n">
+        <v>0.29</v>
       </c>
       <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>172</v>
+      <c r="H35" t="n">
+        <v>1.97</v>
       </c>
       <c r="I35" t="s"/>
-      <c r="J35" t="s">
-        <v>173</v>
+      <c r="J35" t="n">
+        <v>-0.06</v>
       </c>
       <c r="K35" t="s"/>
-      <c r="L35" t="s">
-        <v>174</v>
+      <c r="L35" t="n">
+        <v>0.06</v>
       </c>
       <c r="M35" t="s"/>
-      <c r="N35" t="s">
-        <v>175</v>
+      <c r="N35" t="n">
+        <v>0.24</v>
       </c>
       <c r="O35" t="s"/>
-      <c r="P35" t="s">
-        <v>176</v>
+      <c r="P35" t="n">
+        <v>0.03</v>
       </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s">
-        <v>177</v>
+      <c r="R35" t="n">
+        <v>-0.29</v>
       </c>
       <c r="S35" t="s"/>
-      <c r="T35" t="s">
-        <v>178</v>
+      <c r="T35" t="n">
+        <v>0.17</v>
       </c>
       <c r="U35" t="s"/>
-      <c r="V35" t="s">
-        <v>179</v>
+      <c r="V35" t="n">
+        <v>-0.5</v>
       </c>
       <c r="W35" t="s"/>
-      <c r="X35" t="s">
-        <v>180</v>
+      <c r="X35" t="n">
+        <v>0.34</v>
       </c>
       <c r="Y35" t="s"/>
-      <c r="Z35" t="s">
-        <v>177</v>
+      <c r="Z35" t="n">
+        <v>-0.29</v>
       </c>
       <c r="AA35" t="s"/>
-      <c r="AB35" t="s">
-        <v>181</v>
+      <c r="AB35" t="n">
+        <v>-0.1</v>
       </c>
       <c r="AC35" t="s"/>
-      <c r="AD35" t="s">
-        <v>182</v>
+      <c r="AD35" t="n">
+        <v>0.21</v>
       </c>
       <c r="AE35" t="s"/>
-      <c r="AF35" t="s">
-        <v>183</v>
+      <c r="AF35" t="n">
+        <v>0.04</v>
       </c>
       <c r="AG35" t="s"/>
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B36" t="s">
-        <v>460</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>33802</v>
       </c>
       <c r="C36" t="n">
         <v>4.56</v>
       </c>
-      <c r="D36" t="s">
-        <v>461</v>
+      <c r="D36" t="n">
+        <v>-48405</v>
       </c>
       <c r="E36" t="n">
         <v>-4.6</v>
       </c>
-      <c r="F36" t="s">
-        <v>462</v>
+      <c r="F36" t="n">
+        <v>201727</v>
       </c>
       <c r="G36" t="n">
         <v>21.33</v>
       </c>
-      <c r="H36" t="s">
-        <v>463</v>
+      <c r="H36" t="n">
+        <v>1338804</v>
       </c>
       <c r="I36" t="n">
         <v>31.37</v>
       </c>
-      <c r="J36" t="s">
-        <v>464</v>
+      <c r="J36" t="n">
+        <v>-41789</v>
       </c>
       <c r="K36" t="n">
         <v>-4.1</v>
       </c>
-      <c r="L36" t="s">
-        <v>465</v>
+      <c r="L36" t="n">
+        <v>72308</v>
       </c>
       <c r="M36" t="n">
         <v>8.119999999999999</v>
       </c>
-      <c r="N36" t="s">
-        <v>466</v>
+      <c r="N36" t="n">
+        <v>192412</v>
       </c>
       <c r="O36" t="n">
         <v>21.18</v>
       </c>
-      <c r="P36" t="s">
-        <v>467</v>
+      <c r="P36" t="n">
+        <v>9301</v>
       </c>
       <c r="Q36" t="n">
         <v>0.24</v>
       </c>
-      <c r="R36" t="s">
-        <v>468</v>
+      <c r="R36" t="n">
+        <v>-209547</v>
       </c>
       <c r="S36" t="n">
         <v>-31.21</v>
       </c>
-      <c r="T36" t="s">
-        <v>469</v>
+      <c r="T36" t="n">
+        <v>199938</v>
       </c>
       <c r="U36" t="n">
         <v>27.11</v>
       </c>
-      <c r="V36" t="s">
-        <v>470</v>
+      <c r="V36" t="n">
+        <v>-360186</v>
       </c>
       <c r="W36" t="n">
         <v>-65.63</v>
       </c>
-      <c r="X36" t="s">
-        <v>471</v>
+      <c r="X36" t="n">
+        <v>194900</v>
       </c>
       <c r="Y36" t="n">
         <v>6.9</v>
       </c>
-      <c r="Z36" t="s">
-        <v>472</v>
+      <c r="Z36" t="n">
+        <v>-191528</v>
       </c>
       <c r="AA36" t="n">
         <v>-35.39</v>
       </c>
-      <c r="AB36" t="s">
-        <v>473</v>
+      <c r="AB36" t="n">
+        <v>-43341</v>
       </c>
       <c r="AC36" t="n">
         <v>-5.28</v>
       </c>
-      <c r="AD36" t="s">
-        <v>474</v>
+      <c r="AD36" t="n">
+        <v>163648</v>
       </c>
       <c r="AE36" t="n">
         <v>22.02</v>
       </c>
-      <c r="AF36" t="s">
-        <v>475</v>
+      <c r="AF36" t="n">
+        <v>79161</v>
       </c>
       <c r="AG36" t="n">
         <v>2.52</v>
@@ -5349,100 +3804,100 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B37" t="s">
-        <v>477</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>96030</v>
       </c>
       <c r="C37" t="n">
         <v>12.96</v>
       </c>
-      <c r="D37" t="s">
-        <v>478</v>
+      <c r="D37" t="n">
+        <v>84881</v>
       </c>
       <c r="E37" t="n">
         <v>8.08</v>
       </c>
-      <c r="F37" t="s">
-        <v>479</v>
+      <c r="F37" t="n">
+        <v>96670</v>
       </c>
       <c r="G37" t="n">
         <v>10.22</v>
       </c>
-      <c r="H37" t="s">
-        <v>480</v>
+      <c r="H37" t="n">
+        <v>427435</v>
       </c>
       <c r="I37" t="n">
         <v>10.01</v>
       </c>
-      <c r="J37" t="s">
-        <v>481</v>
+      <c r="J37" t="n">
+        <v>91328</v>
       </c>
       <c r="K37" t="n">
         <v>8.960000000000001</v>
       </c>
-      <c r="L37" t="s">
-        <v>482</v>
+      <c r="L37" t="n">
+        <v>139052</v>
       </c>
       <c r="M37" t="n">
         <v>15.62</v>
       </c>
-      <c r="N37" t="s">
-        <v>483</v>
+      <c r="N37" t="n">
+        <v>100514</v>
       </c>
       <c r="O37" t="n">
         <v>11.06</v>
       </c>
-      <c r="P37" t="s">
-        <v>484</v>
+      <c r="P37" t="n">
+        <v>432320</v>
       </c>
       <c r="Q37" t="n">
         <v>10.98</v>
       </c>
-      <c r="R37" t="s">
-        <v>485</v>
+      <c r="R37" t="n">
+        <v>92462</v>
       </c>
       <c r="S37" t="n">
         <v>13.77</v>
       </c>
-      <c r="T37" t="s">
-        <v>486</v>
+      <c r="T37" t="n">
+        <v>88420</v>
       </c>
       <c r="U37" t="n">
         <v>11.99</v>
       </c>
-      <c r="V37" t="s">
-        <v>487</v>
+      <c r="V37" t="n">
+        <v>96547</v>
       </c>
       <c r="W37" t="n">
         <v>17.59</v>
       </c>
-      <c r="X37" t="s">
-        <v>488</v>
+      <c r="X37" t="n">
+        <v>419627</v>
       </c>
       <c r="Y37" t="n">
         <v>14.85</v>
       </c>
-      <c r="Z37" t="s">
-        <v>489</v>
+      <c r="Z37" t="n">
+        <v>80290</v>
       </c>
       <c r="AA37" t="n">
         <v>14.84</v>
       </c>
-      <c r="AB37" t="s">
-        <v>490</v>
+      <c r="AB37" t="n">
+        <v>83142</v>
       </c>
       <c r="AC37" t="n">
         <v>10.14</v>
       </c>
-      <c r="AD37" t="s">
-        <v>491</v>
+      <c r="AD37" t="n">
+        <v>74702</v>
       </c>
       <c r="AE37" t="n">
         <v>10.05</v>
       </c>
-      <c r="AF37" t="s">
-        <v>492</v>
+      <c r="AF37" t="n">
+        <v>529708</v>
       </c>
       <c r="AG37" t="n">
         <v>16.87</v>
@@ -5450,100 +3905,100 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B38" t="s">
-        <v>242</v>
+        <v>68</v>
+      </c>
+      <c r="B38" t="n">
+        <v>59637</v>
       </c>
       <c r="C38" t="n">
         <v>8.050000000000001</v>
       </c>
-      <c r="D38" t="s">
-        <v>243</v>
+      <c r="D38" t="n">
+        <v>-45095</v>
       </c>
       <c r="E38" t="n">
         <v>-4.29</v>
       </c>
-      <c r="F38" t="s">
-        <v>244</v>
+      <c r="F38" t="n">
+        <v>178440</v>
       </c>
       <c r="G38" t="n">
         <v>18.87</v>
       </c>
-      <c r="H38" t="s">
-        <v>245</v>
+      <c r="H38" t="n">
+        <v>1289927</v>
       </c>
       <c r="I38" t="n">
         <v>30.22</v>
       </c>
-      <c r="J38" t="s">
-        <v>246</v>
+      <c r="J38" t="n">
+        <v>-34204</v>
       </c>
       <c r="K38" t="n">
         <v>-3.36</v>
       </c>
-      <c r="L38" t="s">
-        <v>247</v>
+      <c r="L38" t="n">
+        <v>45792</v>
       </c>
       <c r="M38" t="n">
         <v>5.14</v>
       </c>
-      <c r="N38" t="s">
-        <v>248</v>
+      <c r="N38" t="n">
+        <v>179848</v>
       </c>
       <c r="O38" t="n">
         <v>19.8</v>
       </c>
-      <c r="P38" t="s">
-        <v>249</v>
+      <c r="P38" t="n">
+        <v>53788</v>
       </c>
       <c r="Q38" t="n">
         <v>1.37</v>
       </c>
-      <c r="R38" t="s">
-        <v>250</v>
+      <c r="R38" t="n">
+        <v>-183290</v>
       </c>
       <c r="S38" t="n">
         <v>-27.3</v>
       </c>
-      <c r="T38" t="s">
-        <v>251</v>
+      <c r="T38" t="n">
+        <v>115684</v>
       </c>
       <c r="U38" t="n">
         <v>15.69</v>
       </c>
-      <c r="V38" t="s">
-        <v>252</v>
+      <c r="V38" t="n">
+        <v>-316976</v>
       </c>
       <c r="W38" t="n">
         <v>-57.76</v>
       </c>
-      <c r="X38" t="s">
-        <v>253</v>
+      <c r="X38" t="n">
+        <v>213321</v>
       </c>
       <c r="Y38" t="n">
         <v>7.55</v>
       </c>
-      <c r="Z38" t="s">
-        <v>254</v>
+      <c r="Z38" t="n">
+        <v>-188985</v>
       </c>
       <c r="AA38" t="n">
         <v>-34.92</v>
       </c>
-      <c r="AB38" t="s">
-        <v>255</v>
+      <c r="AB38" t="n">
+        <v>-63416</v>
       </c>
       <c r="AC38" t="n">
         <v>-7.73</v>
       </c>
-      <c r="AD38" t="s">
-        <v>256</v>
+      <c r="AD38" t="n">
+        <v>148684</v>
       </c>
       <c r="AE38" t="n">
         <v>20.01</v>
       </c>
-      <c r="AF38" t="s">
-        <v>257</v>
+      <c r="AF38" t="n">
+        <v>9806</v>
       </c>
       <c r="AG38" t="n">
         <v>0.31</v>
@@ -5551,76 +4006,76 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B39" t="s">
-        <v>169</v>
+        <v>69</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.13</v>
       </c>
       <c r="C39" t="s"/>
-      <c r="D39" t="s">
-        <v>170</v>
+      <c r="D39" t="n">
+        <v>-0.05</v>
       </c>
       <c r="E39" t="s"/>
-      <c r="F39" t="s">
-        <v>171</v>
+      <c r="F39" t="n">
+        <v>0.29</v>
       </c>
       <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>172</v>
+      <c r="H39" t="n">
+        <v>1.97</v>
       </c>
       <c r="I39" t="s"/>
-      <c r="J39" t="s">
-        <v>173</v>
+      <c r="J39" t="n">
+        <v>-0.06</v>
       </c>
       <c r="K39" t="s"/>
-      <c r="L39" t="s">
-        <v>174</v>
+      <c r="L39" t="n">
+        <v>0.06</v>
       </c>
       <c r="M39" t="s"/>
-      <c r="N39" t="s">
-        <v>175</v>
+      <c r="N39" t="n">
+        <v>0.24</v>
       </c>
       <c r="O39" t="s"/>
-      <c r="P39" t="s">
-        <v>176</v>
+      <c r="P39" t="n">
+        <v>0.03</v>
       </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s">
-        <v>177</v>
+      <c r="R39" t="n">
+        <v>-0.29</v>
       </c>
       <c r="S39" t="s"/>
-      <c r="T39" t="s">
-        <v>178</v>
+      <c r="T39" t="n">
+        <v>0.17</v>
       </c>
       <c r="U39" t="s"/>
-      <c r="V39" t="s">
-        <v>179</v>
+      <c r="V39" t="n">
+        <v>-0.5</v>
       </c>
       <c r="W39" t="s"/>
-      <c r="X39" t="s">
-        <v>180</v>
+      <c r="X39" t="n">
+        <v>0.34</v>
       </c>
       <c r="Y39" t="s"/>
-      <c r="Z39" t="s">
-        <v>177</v>
+      <c r="Z39" t="n">
+        <v>-0.29</v>
       </c>
       <c r="AA39" t="s"/>
-      <c r="AB39" t="s">
-        <v>181</v>
+      <c r="AB39" t="n">
+        <v>-0.1</v>
       </c>
       <c r="AC39" t="s"/>
-      <c r="AD39" t="s">
-        <v>182</v>
+      <c r="AD39" t="n">
+        <v>0.21</v>
       </c>
       <c r="AE39" t="s"/>
-      <c r="AF39" t="s">
-        <v>183</v>
+      <c r="AF39" t="n">
+        <v>0.04</v>
       </c>
       <c r="AG39" t="s"/>
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="1" t="s">
-        <v>495</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s"/>
@@ -5644,8 +4099,8 @@
       <c r="U40" t="s"/>
       <c r="V40" t="s"/>
       <c r="W40" t="s"/>
-      <c r="X40" t="s">
-        <v>496</v>
+      <c r="X40" t="n">
+        <v>-1214</v>
       </c>
       <c r="Y40" t="n">
         <v>-0.04</v>
@@ -5656,8 +4111,8 @@
       <c r="AC40" t="s"/>
       <c r="AD40" t="s"/>
       <c r="AE40" t="s"/>
-      <c r="AF40" t="s">
-        <v>497</v>
+      <c r="AF40" t="n">
+        <v>2979</v>
       </c>
       <c r="AG40" t="n">
         <v>0.09</v>
@@ -5665,7 +4120,7 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="1" t="s">
-        <v>498</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="s"/>
@@ -5683,50 +4138,50 @@
       <c r="O41" t="s"/>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s">
-        <v>499</v>
+      <c r="R41" t="n">
+        <v>-40257</v>
       </c>
       <c r="S41" t="n">
         <v>-6</v>
       </c>
-      <c r="T41" t="s">
-        <v>500</v>
+      <c r="T41" t="n">
+        <v>-10580</v>
       </c>
       <c r="U41" t="n">
         <v>-1.43</v>
       </c>
-      <c r="V41" t="s">
-        <v>501</v>
+      <c r="V41" t="n">
+        <v>57958</v>
       </c>
       <c r="W41" t="n">
         <v>10.56</v>
       </c>
-      <c r="X41" t="s">
-        <v>502</v>
+      <c r="X41" t="n">
+        <v>-17301</v>
       </c>
       <c r="Y41" t="n">
         <v>-0.61</v>
       </c>
-      <c r="Z41" t="s">
-        <v>503</v>
+      <c r="Z41" t="n">
+        <v>-14792</v>
       </c>
       <c r="AA41" t="n">
         <v>-2.73</v>
       </c>
-      <c r="AB41" t="s">
-        <v>504</v>
+      <c r="AB41" t="n">
+        <v>-6478</v>
       </c>
       <c r="AC41" t="n">
         <v>-0.79</v>
       </c>
-      <c r="AD41" t="s">
-        <v>505</v>
+      <c r="AD41" t="n">
+        <v>-36563</v>
       </c>
       <c r="AE41" t="n">
         <v>-4.92</v>
       </c>
-      <c r="AF41" t="s">
-        <v>506</v>
+      <c r="AF41" t="n">
+        <v>-56502</v>
       </c>
       <c r="AG41" t="n">
         <v>-1.8</v>
@@ -5734,100 +4189,100 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B42" t="s">
-        <v>508</v>
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>45395</v>
       </c>
       <c r="C42" t="n">
         <v>6.12</v>
       </c>
-      <c r="D42" t="s">
-        <v>509</v>
+      <c r="D42" t="n">
+        <v>45518</v>
       </c>
       <c r="E42" t="n">
         <v>4.33</v>
       </c>
-      <c r="F42" t="s">
-        <v>510</v>
+      <c r="F42" t="n">
+        <v>39630</v>
       </c>
       <c r="G42" t="n">
         <v>4.19</v>
       </c>
-      <c r="H42" t="s">
-        <v>511</v>
+      <c r="H42" t="n">
+        <v>171332</v>
       </c>
       <c r="I42" t="n">
         <v>4.01</v>
       </c>
-      <c r="J42" t="s">
-        <v>512</v>
+      <c r="J42" t="n">
+        <v>43531</v>
       </c>
       <c r="K42" t="n">
         <v>4.27</v>
       </c>
-      <c r="L42" t="s">
-        <v>513</v>
+      <c r="L42" t="n">
+        <v>43538</v>
       </c>
       <c r="M42" t="n">
         <v>4.89</v>
       </c>
-      <c r="N42" t="s">
-        <v>514</v>
+      <c r="N42" t="n">
+        <v>51357</v>
       </c>
       <c r="O42" t="n">
         <v>5.65</v>
       </c>
-      <c r="P42" t="s">
-        <v>515</v>
+      <c r="P42" t="n">
+        <v>193067</v>
       </c>
       <c r="Q42" t="n">
         <v>4.9</v>
       </c>
-      <c r="R42" t="s">
-        <v>516</v>
+      <c r="R42" t="n">
+        <v>52280</v>
       </c>
       <c r="S42" t="n">
         <v>7.79</v>
       </c>
-      <c r="T42" t="s">
-        <v>517</v>
+      <c r="T42" t="n">
+        <v>51729</v>
       </c>
       <c r="U42" t="n">
         <v>7.01</v>
       </c>
-      <c r="V42" t="s">
-        <v>518</v>
+      <c r="V42" t="n">
+        <v>63191</v>
       </c>
       <c r="W42" t="n">
         <v>11.51</v>
       </c>
-      <c r="X42" t="s">
-        <v>519</v>
+      <c r="X42" t="n">
+        <v>226225</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
       </c>
-      <c r="Z42" t="s">
-        <v>520</v>
+      <c r="Z42" t="n">
+        <v>49469</v>
       </c>
       <c r="AA42" t="n">
         <v>9.140000000000001</v>
       </c>
-      <c r="AB42" t="s">
-        <v>521</v>
+      <c r="AB42" t="n">
+        <v>50282</v>
       </c>
       <c r="AC42" t="n">
         <v>6.13</v>
       </c>
-      <c r="AD42" t="s">
-        <v>522</v>
+      <c r="AD42" t="n">
+        <v>45731</v>
       </c>
       <c r="AE42" t="n">
         <v>6.15</v>
       </c>
-      <c r="AF42" t="s">
-        <v>523</v>
+      <c r="AF42" t="n">
+        <v>191630</v>
       </c>
       <c r="AG42" t="n">
         <v>6.1</v>
@@ -5835,100 +4290,100 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B43" t="s">
-        <v>525</v>
+        <v>73</v>
+      </c>
+      <c r="B43" t="n">
+        <v>519507</v>
       </c>
       <c r="C43" t="n">
         <v>70.09</v>
       </c>
-      <c r="D43" t="s">
-        <v>526</v>
+      <c r="D43" t="n">
+        <v>734198</v>
       </c>
       <c r="E43" t="n">
         <v>69.84999999999999</v>
       </c>
-      <c r="F43" t="s">
-        <v>527</v>
+      <c r="F43" t="n">
+        <v>652527</v>
       </c>
       <c r="G43" t="n">
         <v>69</v>
       </c>
-      <c r="H43" t="s">
-        <v>528</v>
+      <c r="H43" t="n">
+        <v>2771533</v>
       </c>
       <c r="I43" t="n">
         <v>64.93000000000001</v>
       </c>
-      <c r="J43" t="s">
-        <v>529</v>
+      <c r="J43" t="n">
+        <v>664215</v>
       </c>
       <c r="K43" t="n">
         <v>65.16</v>
       </c>
-      <c r="L43" t="s">
-        <v>530</v>
+      <c r="L43" t="n">
+        <v>526419</v>
       </c>
       <c r="M43" t="n">
         <v>59.14</v>
       </c>
-      <c r="N43" t="s">
-        <v>531</v>
+      <c r="N43" t="n">
+        <v>604863</v>
       </c>
       <c r="O43" t="n">
         <v>66.58</v>
       </c>
-      <c r="P43" t="s">
-        <v>532</v>
+      <c r="P43" t="n">
+        <v>2569610</v>
       </c>
       <c r="Q43" t="n">
         <v>65.26000000000001</v>
       </c>
-      <c r="R43" t="s">
-        <v>533</v>
+      <c r="R43" t="n">
+        <v>536594</v>
       </c>
       <c r="S43" t="n">
         <v>79.93000000000001</v>
       </c>
-      <c r="T43" t="s">
-        <v>534</v>
+      <c r="T43" t="n">
+        <v>533777</v>
       </c>
       <c r="U43" t="n">
         <v>72.38</v>
       </c>
-      <c r="V43" t="s">
-        <v>535</v>
+      <c r="V43" t="n">
+        <v>386868</v>
       </c>
       <c r="W43" t="n">
         <v>70.48999999999999</v>
       </c>
-      <c r="X43" t="s">
-        <v>536</v>
+      <c r="X43" t="n">
+        <v>2084724</v>
       </c>
       <c r="Y43" t="n">
         <v>73.76000000000001</v>
       </c>
-      <c r="Z43" t="s">
-        <v>537</v>
+      <c r="Z43" t="n">
+        <v>340179</v>
       </c>
       <c r="AA43" t="n">
         <v>62.85</v>
       </c>
-      <c r="AB43" t="s">
-        <v>538</v>
+      <c r="AB43" t="n">
+        <v>555733</v>
       </c>
       <c r="AC43" t="n">
         <v>67.75</v>
       </c>
-      <c r="AD43" t="s">
-        <v>539</v>
+      <c r="AD43" t="n">
+        <v>470093</v>
       </c>
       <c r="AE43" t="n">
         <v>63.25</v>
       </c>
-      <c r="AF43" t="s">
-        <v>540</v>
+      <c r="AF43" t="n">
+        <v>2113323</v>
       </c>
       <c r="AG43" t="n">
         <v>67.3</v>
@@ -5936,100 +4391,100 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B44" t="s">
-        <v>542</v>
+        <v>74</v>
+      </c>
+      <c r="B44" t="n">
+        <v>440148</v>
       </c>
       <c r="C44" t="n">
         <v>59.38</v>
       </c>
-      <c r="D44" t="s">
-        <v>543</v>
+      <c r="D44" t="n">
+        <v>706426</v>
       </c>
       <c r="E44" t="n">
         <v>67.20999999999999</v>
       </c>
-      <c r="F44" t="s">
-        <v>544</v>
+      <c r="F44" t="n">
+        <v>604738</v>
       </c>
       <c r="G44" t="n">
         <v>63.94</v>
       </c>
-      <c r="H44" t="s">
-        <v>545</v>
+      <c r="H44" t="n">
+        <v>2718889</v>
       </c>
       <c r="I44" t="n">
         <v>63.7</v>
       </c>
-      <c r="J44" t="s">
-        <v>546</v>
+      <c r="J44" t="n">
+        <v>669433</v>
       </c>
       <c r="K44" t="n">
         <v>65.67</v>
       </c>
-      <c r="L44" t="s">
-        <v>547</v>
+      <c r="L44" t="n">
+        <v>513947</v>
       </c>
       <c r="M44" t="n">
         <v>57.74</v>
       </c>
-      <c r="N44" t="s">
-        <v>548</v>
+      <c r="N44" t="n">
+        <v>552168</v>
       </c>
       <c r="O44" t="n">
         <v>60.78</v>
       </c>
-      <c r="P44" t="s">
-        <v>549</v>
+      <c r="P44" t="n">
+        <v>2492946</v>
       </c>
       <c r="Q44" t="n">
         <v>63.31</v>
       </c>
-      <c r="R44" t="s">
-        <v>550</v>
+      <c r="R44" t="n">
+        <v>398213</v>
       </c>
       <c r="S44" t="n">
         <v>59.31</v>
       </c>
-      <c r="T44" t="s">
-        <v>551</v>
+      <c r="T44" t="n">
+        <v>455884</v>
       </c>
       <c r="U44" t="n">
         <v>61.82</v>
       </c>
-      <c r="V44" t="s">
-        <v>552</v>
+      <c r="V44" t="n">
+        <v>291530</v>
       </c>
       <c r="W44" t="n">
         <v>53.12</v>
       </c>
-      <c r="X44" t="s">
-        <v>553</v>
+      <c r="X44" t="n">
+        <v>1715251</v>
       </c>
       <c r="Y44" t="n">
         <v>60.68</v>
       </c>
-      <c r="Z44" t="s">
-        <v>554</v>
+      <c r="Z44" t="n">
+        <v>270998</v>
       </c>
       <c r="AA44" t="n">
         <v>50.07</v>
       </c>
-      <c r="AB44" t="s">
-        <v>555</v>
+      <c r="AB44" t="n">
+        <v>487447</v>
       </c>
       <c r="AC44" t="n">
         <v>59.43</v>
       </c>
-      <c r="AD44" t="s">
-        <v>556</v>
+      <c r="AD44" t="n">
+        <v>381455</v>
       </c>
       <c r="AE44" t="n">
         <v>51.33</v>
       </c>
-      <c r="AF44" t="s">
-        <v>557</v>
+      <c r="AF44" t="n">
+        <v>1789061</v>
       </c>
       <c r="AG44" t="n">
         <v>56.97</v>
@@ -6037,100 +4492,100 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B45" t="s">
-        <v>559</v>
+        <v>75</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-22692</v>
       </c>
       <c r="C45" t="n">
         <v>-3.06</v>
       </c>
-      <c r="D45" t="s">
-        <v>560</v>
+      <c r="D45" t="n">
+        <v>-11909</v>
       </c>
       <c r="E45" t="n">
         <v>-1.13</v>
       </c>
-      <c r="F45" t="s">
-        <v>561</v>
+      <c r="F45" t="n">
+        <v>-9496</v>
       </c>
       <c r="G45" t="n">
         <v>-1</v>
       </c>
-      <c r="H45" t="s">
-        <v>562</v>
+      <c r="H45" t="n">
+        <v>17859</v>
       </c>
       <c r="I45" t="n">
         <v>0.42</v>
       </c>
-      <c r="J45" t="s">
-        <v>563</v>
+      <c r="J45" t="n">
+        <v>5180</v>
       </c>
       <c r="K45" t="n">
         <v>0.51</v>
       </c>
-      <c r="L45" t="s">
-        <v>564</v>
+      <c r="L45" t="n">
+        <v>10130</v>
       </c>
       <c r="M45" t="n">
         <v>1.14</v>
       </c>
-      <c r="N45" t="s">
-        <v>565</v>
+      <c r="N45" t="n">
+        <v>26010</v>
       </c>
       <c r="O45" t="n">
         <v>2.86</v>
       </c>
-      <c r="P45" t="s">
-        <v>566</v>
+      <c r="P45" t="n">
+        <v>37445</v>
       </c>
       <c r="Q45" t="n">
         <v>0.95</v>
       </c>
-      <c r="R45" t="s">
-        <v>567</v>
+      <c r="R45" t="n">
+        <v>4490</v>
       </c>
       <c r="S45" t="n">
         <v>0.67</v>
       </c>
-      <c r="T45" t="s">
-        <v>568</v>
+      <c r="T45" t="n">
+        <v>7402</v>
       </c>
       <c r="U45" t="n">
         <v>1</v>
       </c>
-      <c r="V45" t="s">
-        <v>569</v>
+      <c r="V45" t="n">
+        <v>4724</v>
       </c>
       <c r="W45" t="n">
         <v>0.86</v>
       </c>
-      <c r="X45" t="s">
-        <v>570</v>
+      <c r="X45" t="n">
+        <v>-8197</v>
       </c>
       <c r="Y45" t="n">
         <v>-0.29</v>
       </c>
-      <c r="Z45" t="s">
-        <v>571</v>
+      <c r="Z45" t="n">
+        <v>-365</v>
       </c>
       <c r="AA45" t="n">
         <v>-0.07000000000000001</v>
       </c>
-      <c r="AB45" t="s">
-        <v>572</v>
+      <c r="AB45" t="n">
+        <v>2975</v>
       </c>
       <c r="AC45" t="n">
         <v>0.36</v>
       </c>
-      <c r="AD45" t="s">
-        <v>573</v>
+      <c r="AD45" t="n">
+        <v>13213</v>
       </c>
       <c r="AE45" t="n">
         <v>1.78</v>
       </c>
-      <c r="AF45" t="s">
-        <v>574</v>
+      <c r="AF45" t="n">
+        <v>-15083</v>
       </c>
       <c r="AG45" t="n">
         <v>-0.48</v>
@@ -6138,100 +4593,100 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B46" t="s">
-        <v>576</v>
+        <v>76</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-16575</v>
       </c>
       <c r="C46" t="n">
         <v>-2.24</v>
       </c>
-      <c r="D46" t="s">
-        <v>577</v>
+      <c r="D46" t="n">
+        <v>-16926</v>
       </c>
       <c r="E46" t="n">
         <v>-1.61</v>
       </c>
-      <c r="F46" t="s">
-        <v>578</v>
+      <c r="F46" t="n">
+        <v>45688</v>
       </c>
       <c r="G46" t="n">
         <v>4.83</v>
       </c>
-      <c r="H46" t="s">
-        <v>579</v>
+      <c r="H46" t="n">
+        <v>184928</v>
       </c>
       <c r="I46" t="n">
         <v>4.33</v>
       </c>
-      <c r="J46" t="s">
-        <v>580</v>
+      <c r="J46" t="n">
+        <v>27065</v>
       </c>
       <c r="K46" t="n">
         <v>2.65</v>
       </c>
-      <c r="L46" t="s">
-        <v>581</v>
+      <c r="L46" t="n">
+        <v>-56451</v>
       </c>
       <c r="M46" t="n">
         <v>-6.34</v>
       </c>
-      <c r="N46" t="s">
-        <v>582</v>
+      <c r="N46" t="n">
+        <v>28366</v>
       </c>
       <c r="O46" t="n">
         <v>3.12</v>
       </c>
-      <c r="P46" t="s">
-        <v>583</v>
+      <c r="P46" t="n">
+        <v>-3344</v>
       </c>
       <c r="Q46" t="n">
         <v>-0.08</v>
       </c>
-      <c r="R46" t="s">
-        <v>584</v>
+      <c r="R46" t="n">
+        <v>-11056</v>
       </c>
       <c r="S46" t="n">
         <v>-1.65</v>
       </c>
-      <c r="T46" t="s">
-        <v>585</v>
+      <c r="T46" t="n">
+        <v>-44246</v>
       </c>
       <c r="U46" t="n">
         <v>-6</v>
       </c>
-      <c r="V46" t="s">
-        <v>586</v>
+      <c r="V46" t="n">
+        <v>-94834</v>
       </c>
       <c r="W46" t="n">
         <v>-17.28</v>
       </c>
-      <c r="X46" t="s">
-        <v>587</v>
+      <c r="X46" t="n">
+        <v>-195003</v>
       </c>
       <c r="Y46" t="n">
         <v>-6.9</v>
       </c>
-      <c r="Z46" t="s">
-        <v>588</v>
+      <c r="Z46" t="n">
+        <v>4925</v>
       </c>
       <c r="AA46" t="n">
         <v>0.91</v>
       </c>
-      <c r="AB46" t="s">
-        <v>589</v>
+      <c r="AB46" t="n">
+        <v>-13134</v>
       </c>
       <c r="AC46" t="n">
         <v>-1.6</v>
       </c>
-      <c r="AD46" t="s">
-        <v>590</v>
+      <c r="AD46" t="n">
+        <v>98016</v>
       </c>
       <c r="AE46" t="n">
         <v>13.19</v>
       </c>
-      <c r="AF46" t="s">
-        <v>591</v>
+      <c r="AF46" t="n">
+        <v>53252</v>
       </c>
       <c r="AG46" t="n">
         <v>1.7</v>
